--- a/dataloader example/Training visualized per Epoch.xlsx
+++ b/dataloader example/Training visualized per Epoch.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="78">
   <si>
     <t xml:space="preserve">batch size 4 epochs 25 cpu threads 8 date 2019-06-26 22:17:38.587110</t>
   </si>
@@ -54,34 +54,55 @@
     <t xml:space="preserve">batch size 128 epochs 25 cpu threads 8 date 2019-06-27 05:43:22.785924</t>
   </si>
   <si>
+    <t xml:space="preserve">('net2_1', 'batch size', 2, 'epochs', 50, 'cpu threads', 8, 'date', '2019-07-01 20:20:17.435685')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">('net2_2', 'batch size', 4, 'epochs', 50, 'cpu threads', 8, 'date', '2019-07-02 00:30:52.476362')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">('net2_3', 'batch size', 8, 'epochs', 50, 'cpu threads', 8, 'date', '2019-07-02 01:39:03.498573')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">('net2_4', 'batch size', 16, 'epochs', 50, 'cpu threads', 8, 'date', '2019-07-02 02:32:01.175982')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">('net2_5', 'batch size', 32, 'epochs', 50, 'cpu threads', 8, 'date', '2019-07-02 03:08:57.704818')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">('net2_6', 'batch size', 64, 'epochs', 50, 'cpu threads', 8, 'date', '2019-07-02 03:36:38.012434')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">('net2_7', 'batch size', 128, 'epochs', 50, 'cpu threads', 8, 'date', '2019-07-02 09:13:59.891548')</t>
+  </si>
+  <si>
     <t xml:space="preserve">Epoch</t>
   </si>
   <si>
-    <t xml:space="preserve">Avg Loss 1</t>
+    <t xml:space="preserve">Avg Loss 1-off</t>
   </si>
   <si>
-    <t xml:space="preserve">Sqrt Loss 1</t>
+    <t xml:space="preserve">Sqrt Loss 1-off</t>
   </si>
   <si>
-    <t xml:space="preserve">time per epoch 1</t>
+    <t xml:space="preserve">time per epoch 1-off</t>
   </si>
   <si>
-    <t xml:space="preserve">Avg Loss 2</t>
+    <t xml:space="preserve">Avg Loss 2-off</t>
   </si>
   <si>
-    <t xml:space="preserve">Sqrt Loss 2</t>
+    <t xml:space="preserve">Sqrt Loss 2-off</t>
   </si>
   <si>
-    <t xml:space="preserve">time per epoch 2</t>
+    <t xml:space="preserve">time per epoch 2-off</t>
   </si>
   <si>
-    <t xml:space="preserve">Avg Loss 3 </t>
+    <t xml:space="preserve">Avg Loss 3 -off</t>
   </si>
   <si>
-    <t xml:space="preserve">Sqrt Loss 3 </t>
+    <t xml:space="preserve">Sqrt Loss 3 -off</t>
   </si>
   <si>
-    <t xml:space="preserve">time per epoch 3</t>
+    <t xml:space="preserve">time per epoch 3-off</t>
   </si>
   <si>
     <t xml:space="preserve">Avg Loss 1.1</t>
@@ -147,6 +168,87 @@
     <t xml:space="preserve">time per epoch 1.7</t>
   </si>
   <si>
+    <t xml:space="preserve">Avg Loss 2.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sqrt Loss 2.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">time per epoch 2.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avg Loss 2.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sqrt Loss 2.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">time per epoch 2.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avg Loss 2.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sqrt Loss 2.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">time per epoch 2.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avg Loss 2.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sqrt Loss 2.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">time per epoch 2.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avg Loss 2.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sqrt Loss 2.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">time per epoch 2.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avg Loss 2.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sqrt Loss 2.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">time per epoch 2.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avg Loss 2.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sqrt Loss 2.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">time per epoch 2.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25 Epochs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50 Epochs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Training Session</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MSE Loss on Different Dataset from Actual – Predicted in PWM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average Time per Epoch (s)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Epochs</t>
+  </si>
+  <si>
     <t xml:space="preserve">Batches</t>
   </si>
   <si>
@@ -163,11 +265,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -185,12 +288,25 @@
       <family val="0"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="13"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -237,13 +353,17 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -259,7 +379,7 @@
     <indexedColors>
       <rgbColor rgb="FF000000"/>
       <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF420E"/>
+      <rgbColor rgb="FFC5000B"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -279,7 +399,7 @@
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FF0084D1"/>
       <rgbColor rgb="FFCCCCFF"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
@@ -301,7 +421,7 @@
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FFAECF00"/>
       <rgbColor rgb="FFFFD320"/>
-      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF950E"/>
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
@@ -309,7 +429,7 @@
       <rgbColor rgb="FF579D1C"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF314004"/>
-      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FFFF420E"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF4B1F6F"/>
       <rgbColor rgb="FF333333"/>
@@ -318,7 +438,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -368,10 +488,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0597988583854308"/>
-          <c:y val="0.138822033513464"/>
-          <c:w val="0.863654421142869"/>
-          <c:h val="0.769401934517052"/>
+          <c:x val="0.0598067325050441"/>
+          <c:y val="0.138828337874659"/>
+          <c:w val="0.863629606031645"/>
+          <c:h val="0.769346049046322"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -386,7 +506,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Sqrt Loss 1</c:v>
+                  <c:v>Sqrt Loss 1-off</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -412,6 +532,7 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -592,6 +713,582 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Collected Data'!$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sqrt Loss 2-off</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ffd320"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Collected Data'!$F$3:$F$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Collected Data'!$H$3:$H$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>18.7335357258373</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17.5227776237698</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17.5655086154446</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17.6102620672679</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17.6653128265582</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17.6422235982732</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17.6070544890877</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17.668095522527</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17.6139711881067</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>17.7264190016615</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>17.7128694205925</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>17.6592808273939</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>17.6896024260663</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>17.722891767858</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>17.7060915476485</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>17.6953850818085</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17.6223598733547</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17.6871264881714</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>17.7120432432395</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>17.5848396223824</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>17.6139364618321</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>17.5827856050907</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>17.5559429514706</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>17.6003059463445</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>17.6203786819121</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Collected Data'!$M$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sqrt Loss 3 -off</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff99cc"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ff99cc"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff99cc"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Collected Data'!$K$3:$K$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Collected Data'!$M$3:$M$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>18.9172762102775</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17.4991011452113</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17.4315859788736</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17.5242016623115</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17.5285854719377</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17.5098531254163</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17.5273587353919</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17.6035062056855</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17.6131109148095</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>17.7199040472408</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>17.8092668840217</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>17.9089583956152</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>17.7851516257112</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>17.749955709514</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>17.6060936364112</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>17.6856267437101</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17.7011999951661</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17.6810197254973</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>17.685992683745</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>17.8500040427498</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>17.9078592097882</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>17.7971244739653</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>17.8362086984664</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>17.7258657786348</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>17.7416680364264</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>17.7510517004681</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>17.6893648954296</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>17.6030402674018</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>17.5682334377703</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>17.5664167734026</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>17.5751411674102</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>17.5857624147955</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>17.5556216283471</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>17.3826895414848</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>17.3602919209372</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>17.3376146766419</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>17.2997072993053</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>17.1677758786927</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>17.1486913468575</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>17.1514105387513</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>17.1483804219726</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>17.1422869379372</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>17.1269272157429</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>17.1142034952845</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>17.0930384858321</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>17.1693842768159</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>17.1194041544924</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>17.1622207704532</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>17.1496831084793</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>17.1438045204154</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
           <c:tx>
             <c:strRef>
               <c:f>'Collected Data'!$R$2</c:f>
@@ -624,6 +1321,7 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -802,8 +1500,8 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
+          <c:idx val="4"/>
+          <c:order val="4"/>
           <c:tx>
             <c:strRef>
               <c:f>'Collected Data'!$W$2</c:f>
@@ -836,6 +1534,7 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1014,8 +1713,8 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
+          <c:idx val="5"/>
+          <c:order val="5"/>
           <c:tx>
             <c:strRef>
               <c:f>'Collected Data'!$AF$2</c:f>
@@ -1048,6 +1747,7 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1226,8 +1926,8 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
+          <c:idx val="6"/>
+          <c:order val="6"/>
           <c:tx>
             <c:strRef>
               <c:f>'Collected Data'!$AK$2</c:f>
@@ -1260,6 +1960,7 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1438,8 +2139,8 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
+          <c:idx val="7"/>
+          <c:order val="7"/>
           <c:tx>
             <c:strRef>
               <c:f>'Collected Data'!$AP$2</c:f>
@@ -1472,6 +2173,7 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1650,8 +2352,8 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
+          <c:idx val="8"/>
+          <c:order val="8"/>
           <c:tx>
             <c:strRef>
               <c:f>'Collected Data'!$AU$2</c:f>
@@ -1684,6 +2386,7 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1862,15 +2565,1825 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
-          <c:idx val="7"/>
-          <c:order val="7"/>
+          <c:idx val="9"/>
+          <c:order val="9"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Collected Data'!$H$2</c:f>
+              <c:f>'Collected Data'!$AZ$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Sqrt Loss 2</c:v>
+                  <c:v>Sqrt Loss 2.1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff950e"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ff950e"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="star"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff950e"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Collected Data'!$AX$3:$AX$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Collected Data'!$AZ$3:$AZ$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>18.1839231261442</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17.9953573374158</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18.0885322668608</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18.1857210812659</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18.1255258057307</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18.1036977591976</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17.9744169434404</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17.4777442483356</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17.3341021220228</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>17.4551735198594</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>17.3443706801929</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>17.3465206186514</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>17.2930266021539</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>17.1805948900459</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>17.110359863243</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>17.1791861637115</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17.1038542308667</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17.0280258589493</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>17.0555618088176</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>17.0178492384499</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>16.9715072702824</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>17.0255099637282</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>17.0181594030255</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>17.0099414109064</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>16.9777914397635</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>16.9428239912338</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>16.9265958786339</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>16.8558994924089</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>16.9015056277763</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>16.9204709246585</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>16.9165707930195</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>16.9684572079794</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>16.9258585393354</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>16.9469231616733</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>16.989125676441</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>16.9683167540633</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>16.9331401352374</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>16.9377660532816</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>16.9461615224912</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>16.9452194239658</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>16.892079081452</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>16.927992132765</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>16.9019697899906</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>16.9199981505915</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>16.9054760040333</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>16.9070969653182</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>16.8782508292679</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>16.8120755857702</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>16.8740561138701</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>16.8753746868043</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Collected Data'!$BE$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sqrt Loss 2.2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="c5000b"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="c5000b"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="c5000b"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Collected Data'!$BC$3:$BC$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Collected Data'!$BE$3:$BE$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>18.9125755478953</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17.6831747864126</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17.6407798288964</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17.4714514624572</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17.4361778929345</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17.398279201848</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17.3146384447647</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17.2520894472032</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17.2351813281031</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>17.2491278163866</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>17.2511147822356</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>17.3957136942289</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>17.3419918142863</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>17.2544308195419</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>17.2491185872231</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>17.1939359029235</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17.2508922974808</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17.199979903306</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>17.1644134937551</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>17.1617392045707</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>17.1482726450572</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>17.1212681131057</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>17.0437483548439</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>17.0944472821313</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>17.081746104626</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>17.0933528181162</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>17.1383956579868</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>17.1511250230103</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>17.1142289074411</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>17.1503614878626</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>17.1210868534309</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>17.1623510630427</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>17.1231286794692</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>17.1378472080064</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>17.0735992996401</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>17.03283978083</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>17.0596203030287</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>17.0340890316916</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>17.0348683801196</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>16.9821453224887</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>16.9718603291398</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>16.9767990058033</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>16.997943576627</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>17.0014815971685</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>17.0271803244299</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>17.0166898811851</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>16.9992080573192</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>17.016440168331</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>16.9864260922589</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>17.0141558514615</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Collected Data'!$BJ$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sqrt Loss 2.3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="0084d1"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="0084d1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="plus"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0084d1"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Collected Data'!$BH$3:$BH$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Collected Data'!$BJ$3:$BJ$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>18.4766328861951</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17.368540567788</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17.2639615065653</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17.2274062470118</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17.2159898065578</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17.1936604578769</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17.1440769654888</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17.1449657619028</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17.1477062558291</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>17.1459327454826</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>17.1647515686714</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>17.1492488544472</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>17.1045324542665</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>17.1275310082561</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>17.1302064092987</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>17.1928739745143</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17.1321929624958</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17.1166079774926</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>17.1787998347511</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>17.1820113528986</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>17.160123648972</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>17.1834954690186</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>17.1629419622962</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>17.1813154658986</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>17.176707728141</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>17.1519280659814</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>17.1331915983861</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>17.1260804666187</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>17.1081793424853</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>17.0732109595999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>17.0772864799862</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>17.0292976500908</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>17.0655083161284</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>17.0738948056584</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>17.0469594681889</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>17.0766552844004</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>17.0788278023884</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>17.0246665406226</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>17.0078785398942</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>17.0323165919298</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>17.012367986585</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>17.0304099791421</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>17.0186077972979</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>17.0113962737761</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>16.9991576709198</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>17.0056132741699</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>16.9980541551367</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>17.0134901112622</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>17.0190700573581</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>17.0421288157575</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="12"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Collected Data'!$BO$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sqrt Loss 2.4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Collected Data'!$BM$3:$BM$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Collected Data'!$BO$3:$BO$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>20.0707264379353</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17.4244419432322</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17.3208150270664</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17.2379146919092</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17.2078259490579</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17.1835671129414</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17.1786170869932</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17.1627213286124</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17.1989369062263</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>17.184939272811</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>17.1496266410857</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>17.1243826209302</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>17.1441818871783</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>17.0956855503385</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>17.0878145836649</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>17.0809715859042</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17.0762692371303</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17.0870079318807</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>17.0637139153747</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>17.035175352902</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>17.0454680394458</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>17.0569147177083</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>17.0879071175982</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>17.0499885042988</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>17.1047956196839</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>17.0693472671443</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>17.1074815128714</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>17.0836660799872</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>17.097375419898</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>17.0756914332689</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>17.0682564820046</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>17.1042853838682</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>17.1692254681329</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>17.1102586783698</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>17.115834610053</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>17.1035638890167</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>17.1342794769302</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>17.1470245944317</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>17.1626200826013</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>17.077312257019</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>17.1178330751594</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>17.0934950374094</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>17.0778096788926</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>17.0431151707669</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>17.0089001642933</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>17.0238674937966</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>17.0045986944018</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>17.035984508859</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>17.0638463255293</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>17.0313167541846</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="13"/>
+          <c:order val="13"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Collected Data'!$BT$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sqrt Loss 2.5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="dash"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Collected Data'!$BR$3:$BR$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Collected Data'!$BT$3:$BT$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>20.8244790522587</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17.3765431096197</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17.2731194785181</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17.2684485597647</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17.1874740827117</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17.1671470077143</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17.1754175288062</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17.1572327746735</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17.1248713163157</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>17.1441700831698</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>17.120411801969</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>17.1545508391328</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>17.1645076266588</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>17.1219909592753</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>17.0835018961427</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>17.1355806884934</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17.1864577550771</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17.1114355273499</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>17.0927199410883</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>17.0862951777882</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>17.0686088799486</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>17.1426776488859</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>17.079362256317</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>17.0340220655599</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>17.0559713147947</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>17.0375455756088</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>17.0268257998169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>17.0841040809179</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>17.0440551278539</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>17.1402951006661</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>17.017378639105</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>17.052091470885</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>16.9964557732678</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>17.0591024145401</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>17.0284910295747</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>17.0467456488511</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>17.0692800697829</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>17.0426832792667</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>16.9749015347616</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>16.9866228900465</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>16.9976993979112</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>16.970508711216</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>17.0179169140711</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>17.3289907999697</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>16.9574095470607</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>16.9792585291075</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>16.950766602786</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>17.0065220786642</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>17.0010646796607</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>16.9627248608559</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="14"/>
+          <c:order val="14"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Collected Data'!$BY$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sqrt Loss 2.6</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1887,7 +4400,7 @@
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:symbol val="triangle"/>
+            <c:symbol val="square"/>
             <c:size val="8"/>
             <c:spPr>
               <a:solidFill>
@@ -1905,10 +4418,10 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>'Collected Data'!$F$3:$F$27</c:f>
+              <c:f>'Collected Data'!$BW$3:$BW$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1983,90 +4496,240 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Collected Data'!$H$3:$H$27</c:f>
+              <c:f>'Collected Data'!$BY$3:$BY$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
-                  <c:v>18.7335357258373</c:v>
+                  <c:v>24.4146872340315</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17.5227776237698</c:v>
+                  <c:v>17.7786490823726</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17.5655086154446</c:v>
+                  <c:v>17.5203147211178</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>17.6102620672679</c:v>
+                  <c:v>17.2891518299928</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>17.6653128265582</c:v>
+                  <c:v>17.2554532567297</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>17.6422235982732</c:v>
+                  <c:v>17.1890553389138</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>17.6070544890877</c:v>
+                  <c:v>17.1427480610904</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>17.668095522527</c:v>
+                  <c:v>17.0546173289975</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>17.6139711881067</c:v>
+                  <c:v>17.1420593704777</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>17.7264190016615</c:v>
+                  <c:v>17.1263674714449</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>17.7128694205925</c:v>
+                  <c:v>17.0684777316217</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>17.6592808273939</c:v>
+                  <c:v>17.1210418718953</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>17.6896024260663</c:v>
+                  <c:v>17.0793558964418</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>17.722891767858</c:v>
+                  <c:v>17.0393801949146</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>17.7060915476485</c:v>
+                  <c:v>17.0507669315518</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>17.6953850818085</c:v>
+                  <c:v>17.0855633846304</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>17.6223598733547</c:v>
+                  <c:v>17.030860680613</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>17.6871264881714</c:v>
+                  <c:v>17.0572332141447</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>17.7120432432395</c:v>
+                  <c:v>17.1251673597432</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>17.5848396223824</c:v>
+                  <c:v>17.0023476928992</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>17.6139364618321</c:v>
+                  <c:v>17.0242624630029</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>17.5827856050907</c:v>
+                  <c:v>17.0457686809146</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>17.5559429514706</c:v>
+                  <c:v>17.0364080416867</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>17.6003059463445</c:v>
+                  <c:v>17.0764300199495</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>17.6203786819121</c:v>
+                  <c:v>17.0458229840562</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>17.0681227943247</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>17.1250370006672</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>17.0418148298593</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>17.0127577793213</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>17.0614425811269</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>17.8409055813284</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>17.0348086381059</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>17.1404623118365</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>17.0387366099139</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>17.075351328142</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>17.0770312811506</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>17.1016948422394</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>17.0351320724473</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>17.0530815189668</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>17.0476966645902</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>17.0090675072037</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>17.0642011909914</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>17.175398597275</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>17.0194040987864</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>16.9986156245889</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>17.0205940134818</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>17.0997356579335</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>17.0536970316052</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>17.0651846253677</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>17.0413835773257</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2074,15 +4737,15 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
-          <c:idx val="8"/>
-          <c:order val="8"/>
+          <c:idx val="15"/>
+          <c:order val="15"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Collected Data'!$M$2</c:f>
+              <c:f>'Collected Data'!$CD$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Sqrt Loss 3 </c:v>
+                  <c:v>Sqrt Loss 2.7</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2099,7 +4762,7 @@
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:symbol val="triangle"/>
+            <c:symbol val="square"/>
             <c:size val="8"/>
             <c:spPr>
               <a:solidFill>
@@ -2117,7 +4780,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>'Collected Data'!$K$3:$K$52</c:f>
+              <c:f>'Collected Data'!$CB$3:$CB$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
@@ -2276,170 +4939,170 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Collected Data'!$M$3:$M$52</c:f>
+              <c:f>'Collected Data'!$CD$3:$CD$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
                 <c:pt idx="0">
-                  <c:v>18.9172762102775</c:v>
+                  <c:v>60.2920053187387</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17.4991011452113</c:v>
+                  <c:v>19.6474097810392</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17.4315859788736</c:v>
+                  <c:v>18.4951078287092</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>17.5242016623115</c:v>
+                  <c:v>18.1019671837631</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>17.5285854719377</c:v>
+                  <c:v>17.8663174987712</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>17.5098531254163</c:v>
+                  <c:v>17.6822553841205</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>17.5273587353919</c:v>
+                  <c:v>17.5502297831071</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>17.6035062056855</c:v>
+                  <c:v>17.5024338346765</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>17.6131109148095</c:v>
+                  <c:v>17.4022925333682</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>17.7199040472408</c:v>
+                  <c:v>17.4236052470753</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>17.8092668840217</c:v>
+                  <c:v>17.3349258794705</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>17.9089583956152</c:v>
+                  <c:v>17.2970068058458</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>17.7851516257112</c:v>
+                  <c:v>17.2678585075032</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>17.749955709514</c:v>
+                  <c:v>17.3379942545061</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>17.6060936364112</c:v>
+                  <c:v>17.189177867025</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>17.6856267437101</c:v>
+                  <c:v>17.2396975126452</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>17.7011999951661</c:v>
+                  <c:v>17.2370235913016</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>17.6810197254973</c:v>
+                  <c:v>17.186678877203</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>17.685992683745</c:v>
+                  <c:v>17.1986198658916</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>17.8500040427498</c:v>
+                  <c:v>17.2630999299514</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>17.9078592097882</c:v>
+                  <c:v>17.188587764651</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>17.7971244739653</c:v>
+                  <c:v>17.2213171345095</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>17.8362086984664</c:v>
+                  <c:v>17.238505417546</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>17.7258657786348</c:v>
+                  <c:v>17.187775996911</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>17.7416680364264</c:v>
+                  <c:v>17.200644919222</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>17.7510517004681</c:v>
+                  <c:v>17.1498092021653</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>17.6893648954296</c:v>
+                  <c:v>17.1737734549607</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>17.6030402674018</c:v>
+                  <c:v>17.2129931971844</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>17.5682334377703</c:v>
+                  <c:v>17.135552392053</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>17.5664167734026</c:v>
+                  <c:v>17.1803878171903</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>17.5751411674102</c:v>
+                  <c:v>17.2144331693034</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>17.5857624147955</c:v>
+                  <c:v>17.1867262602533</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>17.5556216283471</c:v>
+                  <c:v>17.1786861917182</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>17.3826895414848</c:v>
+                  <c:v>17.2122901388435</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>17.3602919209372</c:v>
+                  <c:v>17.1615788071089</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>17.3376146766419</c:v>
+                  <c:v>17.2291420271796</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>17.2997072993053</c:v>
+                  <c:v>17.1579960233941</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>17.1677758786927</c:v>
+                  <c:v>17.1712041879453</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>17.1486913468575</c:v>
+                  <c:v>17.1888033609674</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>17.1514105387513</c:v>
+                  <c:v>17.1997552540096</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>17.1483804219726</c:v>
+                  <c:v>17.1114319469186</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>17.1422869379372</c:v>
+                  <c:v>17.1432226456173</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>17.1269272157429</c:v>
+                  <c:v>17.238184047125</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>17.1142034952845</c:v>
+                  <c:v>17.1459658012356</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>17.0930384858321</c:v>
+                  <c:v>17.196578678677</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>17.1693842768159</c:v>
+                  <c:v>17.1366430506568</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>17.1194041544924</c:v>
+                  <c:v>17.1010706752263</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>17.1622207704532</c:v>
+                  <c:v>17.1208276004864</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>17.1496831084793</c:v>
+                  <c:v>17.1154664783614</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>17.1438045204154</c:v>
+                  <c:v>17.0727563524274</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1930605"/>
-        <c:axId val="73242506"/>
+        <c:axId val="740573"/>
+        <c:axId val="47483286"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1930605"/>
+        <c:axId val="740573"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="50"/>
@@ -2493,7 +5156,7 @@
           </c:tx>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2522,16 +5185,16 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="73242506"/>
+        <c:crossAx val="47483286"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="73242506"/>
+        <c:axId val="47483286"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="18.2"/>
-          <c:min val="17"/>
+          <c:min val="16.5"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2582,7 +5245,7 @@
           </c:tx>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2611,8 +5274,8 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1930605"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="740573"/>
+        <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
@@ -2648,7 +5311,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2662,7 +5325,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Created Data'!$B$1</c:f>
+              <c:f>'Created Data'!$B$2:$B$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2692,6 +5355,7 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -2706,31 +5370,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2</c:v>
-                </c:pt>
                 <c:pt idx="8">
-                  <c:v>3</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2742,25 +5406,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>80.7211255073547</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>57.5811643791199</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>41.4633109378815</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>28.0419330596924</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>23.09263422966</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>22.5932573127747</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v/>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v/>
@@ -2778,7 +5442,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Created Data'!$C$1</c:f>
+              <c:f>'Created Data'!$C$2:$C$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2808,6 +5472,7 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -2822,31 +5487,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2</c:v>
-                </c:pt>
                 <c:pt idx="8">
-                  <c:v>3</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2858,25 +5523,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>20.0570677071839</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>48.5559103819657</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>19.3851783448526</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>19.2745657744252</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>19.1477482046505</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>19.7549941359874</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v/>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v/>
@@ -2889,11 +5554,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="77033952"/>
-        <c:axId val="30110689"/>
+        <c:axId val="79684526"/>
+        <c:axId val="62604283"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="77033952"/>
+        <c:axId val="79684526"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="128"/>
@@ -2939,7 +5604,7 @@
           </c:tx>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2968,12 +5633,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="30110689"/>
+        <c:crossAx val="62604283"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="30110689"/>
+        <c:axId val="62604283"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3026,7 +5691,7 @@
           </c:tx>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3055,7 +5720,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="77033952"/>
+        <c:crossAx val="79684526"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3069,14 +5734,8 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="-2.15540467722815E-005"/>
-          <c:y val="0"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -3109,9 +5768,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>248040</xdr:colOff>
+      <xdr:colOff>247680</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>28800</xdr:rowOff>
+      <xdr:rowOff>28440</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3120,7 +5779,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="99360" y="66960"/>
-        <a:ext cx="17217360" cy="7927200"/>
+        <a:ext cx="16950240" cy="7926840"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3139,9 +5798,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>42</xdr:col>
-      <xdr:colOff>128880</xdr:colOff>
+      <xdr:colOff>128520</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>47880</xdr:rowOff>
+      <xdr:rowOff>47520</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3149,8 +5808,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="17564400" y="0"/>
-        <a:ext cx="16701840" cy="7850520"/>
+        <a:off x="17297640" y="0"/>
+        <a:ext cx="16435080" cy="7850160"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3168,15 +5827,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AV52"/>
+  <dimension ref="A1:CE53"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AM1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AV31" activeCellId="0" sqref="AV31"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="BN7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="CD36" activeCellId="0" sqref="CD36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3210,127 +5869,232 @@
       <c r="AS1" s="0" t="s">
         <v>9</v>
       </c>
+      <c r="AX1" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="BC1" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="BH1" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="BM1" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="BR1" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="BW1" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="CB1" s="0" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="L2" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="P2" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="M2" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="N2" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="P2" s="0" t="s">
-        <v>10</v>
-      </c>
       <c r="Q2" s="0" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="S2" s="0" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="U2" s="0" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="V2" s="0" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="X2" s="0" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="Z2" s="0" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="AA2" s="0" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="AB2" s="1" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="AC2" s="0" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="AD2" s="0" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="AE2" s="0" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="AF2" s="1" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="AG2" s="0" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="AI2" s="0" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="AJ2" s="0" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="AK2" s="1" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="AL2" s="0" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN2" s="0" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="AO2" s="0" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="AP2" s="1" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="AQ2" s="0" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="AS2" s="0" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="AT2" s="0" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="AU2" s="1" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="AV2" s="0" t="s">
-        <v>40</v>
+        <v>47</v>
+      </c>
+      <c r="AX2" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="AY2" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="AZ2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="BA2" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="BC2" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="BD2" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="BE2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BF2" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="BH2" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="BI2" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="BJ2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BK2" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="BM2" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="BN2" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="BO2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BP2" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="BR2" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="BS2" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="BT2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BU2" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="BW2" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="BX2" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="BY2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BZ2" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="CB2" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="CC2" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="CD2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="CE2" s="0" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3454,6 +6218,90 @@
       <c r="AV3" s="0" t="n">
         <v>23.3648505210876</v>
       </c>
+      <c r="AX3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY3" s="0" t="n">
+        <v>330.65506025752</v>
+      </c>
+      <c r="AZ3" s="0" t="n">
+        <v>18.1839231261442</v>
+      </c>
+      <c r="BA3" s="0" t="n">
+        <v>112.31925702095</v>
+      </c>
+      <c r="BC3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD3" s="0" t="n">
+        <v>357.685513854846</v>
+      </c>
+      <c r="BE3" s="0" t="n">
+        <v>18.9125755478953</v>
+      </c>
+      <c r="BF3" s="0" t="n">
+        <v>76.9281802177429</v>
+      </c>
+      <c r="BH3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI3" s="0" t="n">
+        <v>341.385962811227</v>
+      </c>
+      <c r="BJ3" s="0" t="n">
+        <v>18.4766328861951</v>
+      </c>
+      <c r="BK3" s="0" t="n">
+        <v>62.6172018051147</v>
+      </c>
+      <c r="BM3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN3" s="0" t="n">
+        <v>402.834059746437</v>
+      </c>
+      <c r="BO3" s="0" t="n">
+        <v>20.0707264379353</v>
+      </c>
+      <c r="BP3" s="0" t="n">
+        <v>42.5870912075043</v>
+      </c>
+      <c r="BR3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS3" s="0" t="n">
+        <v>433.65892779796</v>
+      </c>
+      <c r="BT3" s="0" t="n">
+        <v>20.8244790522587</v>
+      </c>
+      <c r="BU3" s="0" t="n">
+        <v>33.3691861629486</v>
+      </c>
+      <c r="BW3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX3" s="0" t="n">
+        <v>596.076952735583</v>
+      </c>
+      <c r="BY3" s="0" t="n">
+        <v>24.4146872340315</v>
+      </c>
+      <c r="BZ3" s="0" t="n">
+        <v>28.6671252250671</v>
+      </c>
+      <c r="CB3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC3" s="0" t="n">
+        <v>3635.12590535482</v>
+      </c>
+      <c r="CD3" s="0" t="n">
+        <v>60.2920053187387</v>
+      </c>
+      <c r="CE3" s="0" t="n">
+        <v>21.8518648147583</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
@@ -3576,6 +6424,90 @@
       <c r="AV4" s="0" t="n">
         <v>22.5743029117584</v>
       </c>
+      <c r="AX4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY4" s="0" t="n">
+        <v>323.832885701286</v>
+      </c>
+      <c r="AZ4" s="0" t="n">
+        <v>17.9953573374158</v>
+      </c>
+      <c r="BA4" s="0" t="n">
+        <v>111.524182796478</v>
+      </c>
+      <c r="BC4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD4" s="0" t="n">
+        <v>312.694670526818</v>
+      </c>
+      <c r="BE4" s="0" t="n">
+        <v>17.6831747864126</v>
+      </c>
+      <c r="BF4" s="0" t="n">
+        <v>75.9578161239624</v>
+      </c>
+      <c r="BH4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI4" s="0" t="n">
+        <v>301.666201454896</v>
+      </c>
+      <c r="BJ4" s="0" t="n">
+        <v>17.368540567788</v>
+      </c>
+      <c r="BK4" s="0" t="n">
+        <v>64.4727280139923</v>
+      </c>
+      <c r="BM4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="BN4" s="0" t="n">
+        <v>303.611177033069</v>
+      </c>
+      <c r="BO4" s="0" t="n">
+        <v>17.4244419432322</v>
+      </c>
+      <c r="BP4" s="0" t="n">
+        <v>43.372878074646</v>
+      </c>
+      <c r="BR4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS4" s="0" t="n">
+        <v>301.944250440473</v>
+      </c>
+      <c r="BT4" s="0" t="n">
+        <v>17.3765431096197</v>
+      </c>
+      <c r="BU4" s="0" t="n">
+        <v>33.3648946285248</v>
+      </c>
+      <c r="BW4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="BX4" s="0" t="n">
+        <v>316.080363194148</v>
+      </c>
+      <c r="BY4" s="0" t="n">
+        <v>17.7786490823726</v>
+      </c>
+      <c r="BZ4" s="0" t="n">
+        <v>26.4619948863983</v>
+      </c>
+      <c r="CB4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="CC4" s="0" t="n">
+        <v>386.020711104075</v>
+      </c>
+      <c r="CD4" s="0" t="n">
+        <v>19.6474097810392</v>
+      </c>
+      <c r="CE4" s="0" t="n">
+        <v>21.5108880996704</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
@@ -3698,6 +6630,90 @@
       <c r="AV5" s="0" t="n">
         <v>22.7695682048798</v>
       </c>
+      <c r="AX5" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY5" s="0" t="n">
+        <v>327.194999569264</v>
+      </c>
+      <c r="AZ5" s="0" t="n">
+        <v>18.0885322668608</v>
+      </c>
+      <c r="BA5" s="0" t="n">
+        <v>112.273310661316</v>
+      </c>
+      <c r="BC5" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD5" s="0" t="n">
+        <v>311.197112971597</v>
+      </c>
+      <c r="BE5" s="0" t="n">
+        <v>17.6407798288964</v>
+      </c>
+      <c r="BF5" s="0" t="n">
+        <v>76.0278851985931</v>
+      </c>
+      <c r="BH5" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI5" s="0" t="n">
+        <v>298.044366900168</v>
+      </c>
+      <c r="BJ5" s="0" t="n">
+        <v>17.2639615065653</v>
+      </c>
+      <c r="BK5" s="0" t="n">
+        <v>63.5856132507324</v>
+      </c>
+      <c r="BM5" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="BN5" s="0" t="n">
+        <v>300.010633201848</v>
+      </c>
+      <c r="BO5" s="0" t="n">
+        <v>17.3208150270664</v>
+      </c>
+      <c r="BP5" s="0" t="n">
+        <v>43.2182447910309</v>
+      </c>
+      <c r="BR5" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="BS5" s="0" t="n">
+        <v>298.36065651916</v>
+      </c>
+      <c r="BT5" s="0" t="n">
+        <v>17.2731194785181</v>
+      </c>
+      <c r="BU5" s="0" t="n">
+        <v>32.7248785495758</v>
+      </c>
+      <c r="BW5" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="BX5" s="0" t="n">
+        <v>306.961427927017</v>
+      </c>
+      <c r="BY5" s="0" t="n">
+        <v>17.5203147211178</v>
+      </c>
+      <c r="BZ5" s="0" t="n">
+        <v>26.5173540115356</v>
+      </c>
+      <c r="CB5" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="CC5" s="0" t="n">
+        <v>342.069013595581</v>
+      </c>
+      <c r="CD5" s="0" t="n">
+        <v>18.4951078287092</v>
+      </c>
+      <c r="CE5" s="0" t="n">
+        <v>22.3251388072968</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
@@ -3820,6 +6836,90 @@
       <c r="AV6" s="0" t="n">
         <v>22.585832118988</v>
       </c>
+      <c r="AX6" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY6" s="0" t="n">
+        <v>330.720451245598</v>
+      </c>
+      <c r="AZ6" s="0" t="n">
+        <v>18.1857210812659</v>
+      </c>
+      <c r="BA6" s="0" t="n">
+        <v>108.373720645905</v>
+      </c>
+      <c r="BC6" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="BD6" s="0" t="n">
+        <v>305.251616204998</v>
+      </c>
+      <c r="BE6" s="0" t="n">
+        <v>17.4714514624572</v>
+      </c>
+      <c r="BF6" s="0" t="n">
+        <v>72.4876708984375</v>
+      </c>
+      <c r="BH6" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI6" s="0" t="n">
+        <v>296.783525999579</v>
+      </c>
+      <c r="BJ6" s="0" t="n">
+        <v>17.2274062470118</v>
+      </c>
+      <c r="BK6" s="0" t="n">
+        <v>63.0270936489105</v>
+      </c>
+      <c r="BM6" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="BN6" s="0" t="n">
+        <v>297.145702925539</v>
+      </c>
+      <c r="BO6" s="0" t="n">
+        <v>17.2379146919092</v>
+      </c>
+      <c r="BP6" s="0" t="n">
+        <v>45.1918132305145</v>
+      </c>
+      <c r="BR6" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="BS6" s="0" t="n">
+        <v>298.199315661239</v>
+      </c>
+      <c r="BT6" s="0" t="n">
+        <v>17.2684485597647</v>
+      </c>
+      <c r="BU6" s="0" t="n">
+        <v>32.9700517654419</v>
+      </c>
+      <c r="BW6" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="BX6" s="0" t="n">
+        <v>298.914771000544</v>
+      </c>
+      <c r="BY6" s="0" t="n">
+        <v>17.2891518299928</v>
+      </c>
+      <c r="BZ6" s="0" t="n">
+        <v>27.0788626670837</v>
+      </c>
+      <c r="CB6" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="CC6" s="0" t="n">
+        <v>327.681215922038</v>
+      </c>
+      <c r="CD6" s="0" t="n">
+        <v>18.1019671837631</v>
+      </c>
+      <c r="CE6" s="0" t="n">
+        <v>21.5736255645752</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
@@ -3942,6 +7042,90 @@
       <c r="AV7" s="0" t="n">
         <v>22.9499790668488</v>
       </c>
+      <c r="AX7" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY7" s="0" t="n">
+        <v>328.53468573421</v>
+      </c>
+      <c r="AZ7" s="0" t="n">
+        <v>18.1255258057307</v>
+      </c>
+      <c r="BA7" s="0" t="n">
+        <v>113.700060129166</v>
+      </c>
+      <c r="BC7" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="BD7" s="0" t="n">
+        <v>304.020299514057</v>
+      </c>
+      <c r="BE7" s="0" t="n">
+        <v>17.4361778929345</v>
+      </c>
+      <c r="BF7" s="0" t="n">
+        <v>74.1755397319794</v>
+      </c>
+      <c r="BH7" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI7" s="0" t="n">
+        <v>296.390305019501</v>
+      </c>
+      <c r="BJ7" s="0" t="n">
+        <v>17.2159898065578</v>
+      </c>
+      <c r="BK7" s="0" t="n">
+        <v>64.3002607822418</v>
+      </c>
+      <c r="BM7" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="BN7" s="0" t="n">
+        <v>296.10927389307</v>
+      </c>
+      <c r="BO7" s="0" t="n">
+        <v>17.2078259490579</v>
+      </c>
+      <c r="BP7" s="0" t="n">
+        <v>43.099018573761</v>
+      </c>
+      <c r="BR7" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="BS7" s="0" t="n">
+        <v>295.409265343888</v>
+      </c>
+      <c r="BT7" s="0" t="n">
+        <v>17.1874740827117</v>
+      </c>
+      <c r="BU7" s="0" t="n">
+        <v>33.1312386989593</v>
+      </c>
+      <c r="BW7" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="BX7" s="0" t="n">
+        <v>297.750667095184</v>
+      </c>
+      <c r="BY7" s="0" t="n">
+        <v>17.2554532567297</v>
+      </c>
+      <c r="BZ7" s="0" t="n">
+        <v>26.1105527877808</v>
+      </c>
+      <c r="CB7" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="CC7" s="0" t="n">
+        <v>319.205300966899</v>
+      </c>
+      <c r="CD7" s="0" t="n">
+        <v>17.8663174987712</v>
+      </c>
+      <c r="CE7" s="0" t="n">
+        <v>22.2978627681732</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
@@ -4064,6 +7248,90 @@
       <c r="AV8" s="0" t="n">
         <v>22.463502407074</v>
       </c>
+      <c r="AX8" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY8" s="0" t="n">
+        <v>327.743872556376</v>
+      </c>
+      <c r="AZ8" s="0" t="n">
+        <v>18.1036977591976</v>
+      </c>
+      <c r="BA8" s="0" t="n">
+        <v>118.480543375015</v>
+      </c>
+      <c r="BC8" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD8" s="0" t="n">
+        <v>302.700119185455</v>
+      </c>
+      <c r="BE8" s="0" t="n">
+        <v>17.398279201848</v>
+      </c>
+      <c r="BF8" s="0" t="n">
+        <v>74.6968147754669</v>
+      </c>
+      <c r="BH8" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI8" s="0" t="n">
+        <v>295.621959940759</v>
+      </c>
+      <c r="BJ8" s="0" t="n">
+        <v>17.1936604578769</v>
+      </c>
+      <c r="BK8" s="0" t="n">
+        <v>62.9873771667481</v>
+      </c>
+      <c r="BM8" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="BN8" s="0" t="n">
+        <v>295.27497872496</v>
+      </c>
+      <c r="BO8" s="0" t="n">
+        <v>17.1835671129414</v>
+      </c>
+      <c r="BP8" s="0" t="n">
+        <v>43.6994652748108</v>
+      </c>
+      <c r="BR8" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="BS8" s="0" t="n">
+        <v>294.710936384475</v>
+      </c>
+      <c r="BT8" s="0" t="n">
+        <v>17.1671470077143</v>
+      </c>
+      <c r="BU8" s="0" t="n">
+        <v>32.8396992683411</v>
+      </c>
+      <c r="BW8" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="BX8" s="0" t="n">
+        <v>295.463623444239</v>
+      </c>
+      <c r="BY8" s="0" t="n">
+        <v>17.1890553389138</v>
+      </c>
+      <c r="BZ8" s="0" t="n">
+        <v>26.9312043190002</v>
+      </c>
+      <c r="CB8" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="CC8" s="0" t="n">
+        <v>312.662155469259</v>
+      </c>
+      <c r="CD8" s="0" t="n">
+        <v>17.6822553841205</v>
+      </c>
+      <c r="CE8" s="0" t="n">
+        <v>21.7380154132843</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
@@ -4186,6 +7454,90 @@
       <c r="AV9" s="0" t="n">
         <v>23.1197936534882</v>
       </c>
+      <c r="AX9" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY9" s="0" t="n">
+        <v>323.079664456638</v>
+      </c>
+      <c r="AZ9" s="0" t="n">
+        <v>17.9744169434404</v>
+      </c>
+      <c r="BA9" s="0" t="n">
+        <v>118.475101470947</v>
+      </c>
+      <c r="BC9" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD9" s="0" t="n">
+        <v>299.796704472925</v>
+      </c>
+      <c r="BE9" s="0" t="n">
+        <v>17.3146384447647</v>
+      </c>
+      <c r="BF9" s="0" t="n">
+        <v>76.4182405471802</v>
+      </c>
+      <c r="BH9" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI9" s="0" t="n">
+        <v>293.919374998603</v>
+      </c>
+      <c r="BJ9" s="0" t="n">
+        <v>17.1440769654888</v>
+      </c>
+      <c r="BK9" s="0" t="n">
+        <v>65.0889534950256</v>
+      </c>
+      <c r="BM9" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="BN9" s="0" t="n">
+        <v>295.104885021534</v>
+      </c>
+      <c r="BO9" s="0" t="n">
+        <v>17.1786170869932</v>
+      </c>
+      <c r="BP9" s="0" t="n">
+        <v>43.8546245098114</v>
+      </c>
+      <c r="BR9" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="BS9" s="0" t="n">
+        <v>294.994967288822</v>
+      </c>
+      <c r="BT9" s="0" t="n">
+        <v>17.1754175288062</v>
+      </c>
+      <c r="BU9" s="0" t="n">
+        <v>33.5352523326874</v>
+      </c>
+      <c r="BW9" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="BX9" s="0" t="n">
+        <v>293.873811086019</v>
+      </c>
+      <c r="BY9" s="0" t="n">
+        <v>17.1427480610904</v>
+      </c>
+      <c r="BZ9" s="0" t="n">
+        <v>28.3155429363251</v>
+      </c>
+      <c r="CB9" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="CC9" s="0" t="n">
+        <v>308.01056543986</v>
+      </c>
+      <c r="CD9" s="0" t="n">
+        <v>17.5502297831071</v>
+      </c>
+      <c r="CE9" s="0" t="n">
+        <v>22.2775828838348</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
@@ -4308,6 +7660,90 @@
       <c r="AV10" s="0" t="n">
         <v>22.3645858764648</v>
       </c>
+      <c r="AX10" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY10" s="0" t="n">
+        <v>305.471544010229</v>
+      </c>
+      <c r="AZ10" s="0" t="n">
+        <v>17.4777442483356</v>
+      </c>
+      <c r="BA10" s="0" t="n">
+        <v>113.353411912918</v>
+      </c>
+      <c r="BC10" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD10" s="0" t="n">
+        <v>297.634590294301</v>
+      </c>
+      <c r="BE10" s="0" t="n">
+        <v>17.2520894472032</v>
+      </c>
+      <c r="BF10" s="0" t="n">
+        <v>82.0429835319519</v>
+      </c>
+      <c r="BH10" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI10" s="0" t="n">
+        <v>293.949850976818</v>
+      </c>
+      <c r="BJ10" s="0" t="n">
+        <v>17.1449657619028</v>
+      </c>
+      <c r="BK10" s="0" t="n">
+        <v>64.4910562038422</v>
+      </c>
+      <c r="BM10" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="BN10" s="0" t="n">
+        <v>294.559003403608</v>
+      </c>
+      <c r="BO10" s="0" t="n">
+        <v>17.1627213286124</v>
+      </c>
+      <c r="BP10" s="0" t="n">
+        <v>43.6184277534485</v>
+      </c>
+      <c r="BR10" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="BS10" s="0" t="n">
+        <v>294.37063648433</v>
+      </c>
+      <c r="BT10" s="0" t="n">
+        <v>17.1572327746735</v>
+      </c>
+      <c r="BU10" s="0" t="n">
+        <v>33.0400230884552</v>
+      </c>
+      <c r="BW10" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="BX10" s="0" t="n">
+        <v>290.859972238541</v>
+      </c>
+      <c r="BY10" s="0" t="n">
+        <v>17.0546173289975</v>
+      </c>
+      <c r="BZ10" s="0" t="n">
+        <v>27.0902359485626</v>
+      </c>
+      <c r="CB10" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="CC10" s="0" t="n">
+        <v>306.335190137227</v>
+      </c>
+      <c r="CD10" s="0" t="n">
+        <v>17.5024338346765</v>
+      </c>
+      <c r="CE10" s="0" t="n">
+        <v>22.0639839172363</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
@@ -4430,6 +7866,90 @@
       <c r="AV11" s="0" t="n">
         <v>22.3467683792114</v>
       </c>
+      <c r="AX11" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY11" s="0" t="n">
+        <v>300.471096376714</v>
+      </c>
+      <c r="AZ11" s="0" t="n">
+        <v>17.3341021220228</v>
+      </c>
+      <c r="BA11" s="0" t="n">
+        <v>111.148439884186</v>
+      </c>
+      <c r="BC11" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD11" s="0" t="n">
+        <v>297.051475412595</v>
+      </c>
+      <c r="BE11" s="0" t="n">
+        <v>17.2351813281031</v>
+      </c>
+      <c r="BF11" s="0" t="n">
+        <v>80.5166499614716</v>
+      </c>
+      <c r="BH11" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI11" s="0" t="n">
+        <v>294.0438298362</v>
+      </c>
+      <c r="BJ11" s="0" t="n">
+        <v>17.1477062558291</v>
+      </c>
+      <c r="BK11" s="0" t="n">
+        <v>61.2630879878998</v>
+      </c>
+      <c r="BM11" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="BN11" s="0" t="n">
+        <v>295.803430704354</v>
+      </c>
+      <c r="BO11" s="0" t="n">
+        <v>17.1989369062263</v>
+      </c>
+      <c r="BP11" s="0" t="n">
+        <v>44.192595243454</v>
+      </c>
+      <c r="BR11" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="BS11" s="0" t="n">
+        <v>293.261217600372</v>
+      </c>
+      <c r="BT11" s="0" t="n">
+        <v>17.1248713163157</v>
+      </c>
+      <c r="BU11" s="0" t="n">
+        <v>32.4254372119904</v>
+      </c>
+      <c r="BW11" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="BX11" s="0" t="n">
+        <v>293.850199460983</v>
+      </c>
+      <c r="BY11" s="0" t="n">
+        <v>17.1420593704777</v>
+      </c>
+      <c r="BZ11" s="0" t="n">
+        <v>27.5808441638947</v>
+      </c>
+      <c r="CB11" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="CC11" s="0" t="n">
+        <v>302.839785416921</v>
+      </c>
+      <c r="CD11" s="0" t="n">
+        <v>17.4022925333682</v>
+      </c>
+      <c r="CE11" s="0" t="n">
+        <v>22.1268632411957</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
@@ -4552,6 +8072,90 @@
       <c r="AV12" s="0" t="n">
         <v>22.00399518013</v>
       </c>
+      <c r="AX12" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="AY12" s="0" t="n">
+        <v>304.683082608399</v>
+      </c>
+      <c r="AZ12" s="0" t="n">
+        <v>17.4551735198594</v>
+      </c>
+      <c r="BA12" s="0" t="n">
+        <v>113.43145942688</v>
+      </c>
+      <c r="BC12" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD12" s="0" t="n">
+        <v>297.532410426042</v>
+      </c>
+      <c r="BE12" s="0" t="n">
+        <v>17.2491278163866</v>
+      </c>
+      <c r="BF12" s="0" t="n">
+        <v>79.9309356212616</v>
+      </c>
+      <c r="BH12" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI12" s="0" t="n">
+        <v>293.983009712613</v>
+      </c>
+      <c r="BJ12" s="0" t="n">
+        <v>17.1459327454826</v>
+      </c>
+      <c r="BK12" s="0" t="n">
+        <v>57.6643159389496</v>
+      </c>
+      <c r="BM12" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="BN12" s="0" t="n">
+        <v>295.322137810202</v>
+      </c>
+      <c r="BO12" s="0" t="n">
+        <v>17.184939272811</v>
+      </c>
+      <c r="BP12" s="0" t="n">
+        <v>44.4776217937469</v>
+      </c>
+      <c r="BR12" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="BS12" s="0" t="n">
+        <v>293.922567840656</v>
+      </c>
+      <c r="BT12" s="0" t="n">
+        <v>17.1441700831698</v>
+      </c>
+      <c r="BU12" s="0" t="n">
+        <v>33.0047662258148</v>
+      </c>
+      <c r="BW12" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="BX12" s="0" t="n">
+        <v>293.312462766965</v>
+      </c>
+      <c r="BY12" s="0" t="n">
+        <v>17.1263674714449</v>
+      </c>
+      <c r="BZ12" s="0" t="n">
+        <v>27.2590460777283</v>
+      </c>
+      <c r="CB12" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="CC12" s="0" t="n">
+        <v>303.582019805908</v>
+      </c>
+      <c r="CD12" s="0" t="n">
+        <v>17.4236052470753</v>
+      </c>
+      <c r="CE12" s="0" t="n">
+        <v>22.3842580318451</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
@@ -4674,6 +8278,90 @@
       <c r="AV13" s="0" t="n">
         <v>22.5248417854309</v>
       </c>
+      <c r="AX13" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY13" s="0" t="n">
+        <v>300.827194291936</v>
+      </c>
+      <c r="AZ13" s="0" t="n">
+        <v>17.3443706801929</v>
+      </c>
+      <c r="BA13" s="0" t="n">
+        <v>120.159643411636</v>
+      </c>
+      <c r="BC13" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD13" s="0" t="n">
+        <v>297.600961229869</v>
+      </c>
+      <c r="BE13" s="0" t="n">
+        <v>17.2511147822356</v>
+      </c>
+      <c r="BF13" s="0" t="n">
+        <v>81.1365463733673</v>
+      </c>
+      <c r="BH13" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI13" s="0" t="n">
+        <v>294.628696414206</v>
+      </c>
+      <c r="BJ13" s="0" t="n">
+        <v>17.1647515686714</v>
+      </c>
+      <c r="BK13" s="0" t="n">
+        <v>62.1417920589447</v>
+      </c>
+      <c r="BM13" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="BN13" s="0" t="n">
+        <v>294.109693928638</v>
+      </c>
+      <c r="BO13" s="0" t="n">
+        <v>17.1496266410857</v>
+      </c>
+      <c r="BP13" s="0" t="n">
+        <v>44.1518831253052</v>
+      </c>
+      <c r="BR13" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="BS13" s="0" t="n">
+        <v>293.108500269001</v>
+      </c>
+      <c r="BT13" s="0" t="n">
+        <v>17.120411801969</v>
+      </c>
+      <c r="BU13" s="0" t="n">
+        <v>33.7462849617004</v>
+      </c>
+      <c r="BW13" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="BX13" s="0" t="n">
+        <v>291.332932074865</v>
+      </c>
+      <c r="BY13" s="0" t="n">
+        <v>17.0684777316217</v>
+      </c>
+      <c r="BZ13" s="0" t="n">
+        <v>26.6354825496674</v>
+      </c>
+      <c r="CB13" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="CC13" s="0" t="n">
+        <v>300.499655246735</v>
+      </c>
+      <c r="CD13" s="0" t="n">
+        <v>17.3349258794705</v>
+      </c>
+      <c r="CE13" s="0" t="n">
+        <v>22.9348819255829</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
@@ -4796,6 +8484,90 @@
       <c r="AV14" s="0" t="n">
         <v>22.6190137863159</v>
       </c>
+      <c r="AX14" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="AY14" s="0" t="n">
+        <v>300.901777573298</v>
+      </c>
+      <c r="AZ14" s="0" t="n">
+        <v>17.3465206186514</v>
+      </c>
+      <c r="BA14" s="0" t="n">
+        <v>120.171794652939</v>
+      </c>
+      <c r="BC14" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD14" s="0" t="n">
+        <v>302.610854931583</v>
+      </c>
+      <c r="BE14" s="0" t="n">
+        <v>17.3957136942289</v>
+      </c>
+      <c r="BF14" s="0" t="n">
+        <v>83.0445363521576</v>
+      </c>
+      <c r="BH14" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI14" s="0" t="n">
+        <v>294.09673627176</v>
+      </c>
+      <c r="BJ14" s="0" t="n">
+        <v>17.1492488544472</v>
+      </c>
+      <c r="BK14" s="0" t="n">
+        <v>62.5133349895477</v>
+      </c>
+      <c r="BM14" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="BN14" s="0" t="n">
+        <v>293.244480148016</v>
+      </c>
+      <c r="BO14" s="0" t="n">
+        <v>17.1243826209302</v>
+      </c>
+      <c r="BP14" s="0" t="n">
+        <v>45.5908043384552</v>
+      </c>
+      <c r="BR14" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="BS14" s="0" t="n">
+        <v>294.278614492391</v>
+      </c>
+      <c r="BT14" s="0" t="n">
+        <v>17.1545508391328</v>
+      </c>
+      <c r="BU14" s="0" t="n">
+        <v>32.5906736850739</v>
+      </c>
+      <c r="BW14" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="BX14" s="0" t="n">
+        <v>293.130074779193</v>
+      </c>
+      <c r="BY14" s="0" t="n">
+        <v>17.1210418718953</v>
+      </c>
+      <c r="BZ14" s="0" t="n">
+        <v>27.1708040237427</v>
+      </c>
+      <c r="CB14" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="CC14" s="0" t="n">
+        <v>299.186444441477</v>
+      </c>
+      <c r="CD14" s="0" t="n">
+        <v>17.2970068058458</v>
+      </c>
+      <c r="CE14" s="0" t="n">
+        <v>22.2576179504395</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
@@ -4918,6 +8690,90 @@
       <c r="AV15" s="0" t="n">
         <v>22.6635887622833</v>
       </c>
+      <c r="AX15" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="AY15" s="0" t="n">
+        <v>299.048769062802</v>
+      </c>
+      <c r="AZ15" s="0" t="n">
+        <v>17.2930266021539</v>
+      </c>
+      <c r="BA15" s="0" t="n">
+        <v>119.148155450821</v>
+      </c>
+      <c r="BC15" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD15" s="0" t="n">
+        <v>300.744680086772</v>
+      </c>
+      <c r="BE15" s="0" t="n">
+        <v>17.3419918142863</v>
+      </c>
+      <c r="BF15" s="0" t="n">
+        <v>82.2190225124359</v>
+      </c>
+      <c r="BH15" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="BI15" s="0" t="n">
+        <v>292.565030479057</v>
+      </c>
+      <c r="BJ15" s="0" t="n">
+        <v>17.1045324542665</v>
+      </c>
+      <c r="BK15" s="0" t="n">
+        <v>62.2546310424805</v>
+      </c>
+      <c r="BM15" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="BN15" s="0" t="n">
+        <v>293.922972580654</v>
+      </c>
+      <c r="BO15" s="0" t="n">
+        <v>17.1441818871783</v>
+      </c>
+      <c r="BP15" s="0" t="n">
+        <v>43.2400200366974</v>
+      </c>
+      <c r="BR15" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="BS15" s="0" t="n">
+        <v>294.620322065627</v>
+      </c>
+      <c r="BT15" s="0" t="n">
+        <v>17.1645076266588</v>
+      </c>
+      <c r="BU15" s="0" t="n">
+        <v>33.2741680145264</v>
+      </c>
+      <c r="BW15" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="BX15" s="0" t="n">
+        <v>291.704397837321</v>
+      </c>
+      <c r="BY15" s="0" t="n">
+        <v>17.0793558964418</v>
+      </c>
+      <c r="BZ15" s="0" t="n">
+        <v>29.2674007415771</v>
+      </c>
+      <c r="CB15" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="CC15" s="0" t="n">
+        <v>298.17893743515</v>
+      </c>
+      <c r="CD15" s="0" t="n">
+        <v>17.2678585075032</v>
+      </c>
+      <c r="CE15" s="0" t="n">
+        <v>22.7650349140167</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
@@ -5040,6 +8896,90 @@
       <c r="AV16" s="0" t="n">
         <v>22.6378734111786</v>
       </c>
+      <c r="AX16" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="AY16" s="0" t="n">
+        <v>295.172840775873</v>
+      </c>
+      <c r="AZ16" s="0" t="n">
+        <v>17.1805948900459</v>
+      </c>
+      <c r="BA16" s="0" t="n">
+        <v>118.186838150024</v>
+      </c>
+      <c r="BC16" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD16" s="0" t="n">
+        <v>297.715382906359</v>
+      </c>
+      <c r="BE16" s="0" t="n">
+        <v>17.2544308195419</v>
+      </c>
+      <c r="BF16" s="0" t="n">
+        <v>80.9145178794861</v>
+      </c>
+      <c r="BH16" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="BI16" s="0" t="n">
+        <v>293.352318438773</v>
+      </c>
+      <c r="BJ16" s="0" t="n">
+        <v>17.1275310082561</v>
+      </c>
+      <c r="BK16" s="0" t="n">
+        <v>62.2228813171387</v>
+      </c>
+      <c r="BM16" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="BN16" s="0" t="n">
+        <v>292.262464436051</v>
+      </c>
+      <c r="BO16" s="0" t="n">
+        <v>17.0956855503385</v>
+      </c>
+      <c r="BP16" s="0" t="n">
+        <v>43.6758508682251</v>
+      </c>
+      <c r="BR16" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="BS16" s="0" t="n">
+        <v>293.162574409505</v>
+      </c>
+      <c r="BT16" s="0" t="n">
+        <v>17.1219909592753</v>
+      </c>
+      <c r="BU16" s="0" t="n">
+        <v>32.3432147502899</v>
+      </c>
+      <c r="BW16" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="BX16" s="0" t="n">
+        <v>290.340477426847</v>
+      </c>
+      <c r="BY16" s="0" t="n">
+        <v>17.0393801949146</v>
+      </c>
+      <c r="BZ16" s="0" t="n">
+        <v>27.3269026279449</v>
+      </c>
+      <c r="CB16" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="CC16" s="0" t="n">
+        <v>300.606044769287</v>
+      </c>
+      <c r="CD16" s="0" t="n">
+        <v>17.3379942545061</v>
+      </c>
+      <c r="CE16" s="0" t="n">
+        <v>21.9874427318573</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
@@ -5162,6 +9102,90 @@
       <c r="AV17" s="0" t="n">
         <v>22.2166311740875</v>
       </c>
+      <c r="AX17" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="AY17" s="0" t="n">
+        <v>292.764414649677</v>
+      </c>
+      <c r="AZ17" s="0" t="n">
+        <v>17.110359863243</v>
+      </c>
+      <c r="BA17" s="0" t="n">
+        <v>121.239300489426</v>
+      </c>
+      <c r="BC17" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="BD17" s="0" t="n">
+        <v>297.532092036084</v>
+      </c>
+      <c r="BE17" s="0" t="n">
+        <v>17.2491185872231</v>
+      </c>
+      <c r="BF17" s="0" t="n">
+        <v>80.7448129653931</v>
+      </c>
+      <c r="BH17" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="BI17" s="0" t="n">
+        <v>293.443971625179</v>
+      </c>
+      <c r="BJ17" s="0" t="n">
+        <v>17.1302064092987</v>
+      </c>
+      <c r="BK17" s="0" t="n">
+        <v>64.4450731277466</v>
+      </c>
+      <c r="BM17" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="BN17" s="0" t="n">
+        <v>291.993407245711</v>
+      </c>
+      <c r="BO17" s="0" t="n">
+        <v>17.0878145836649</v>
+      </c>
+      <c r="BP17" s="0" t="n">
+        <v>43.2945346832275</v>
+      </c>
+      <c r="BR17" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="BS17" s="0" t="n">
+        <v>291.846037035511</v>
+      </c>
+      <c r="BT17" s="0" t="n">
+        <v>17.0835018961427</v>
+      </c>
+      <c r="BU17" s="0" t="n">
+        <v>33.6320323944092</v>
+      </c>
+      <c r="BW17" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="BX17" s="0" t="n">
+        <v>290.728652954102</v>
+      </c>
+      <c r="BY17" s="0" t="n">
+        <v>17.0507669315518</v>
+      </c>
+      <c r="BZ17" s="0" t="n">
+        <v>29.0370538234711</v>
+      </c>
+      <c r="CB17" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="CC17" s="0" t="n">
+        <v>295.467835744222</v>
+      </c>
+      <c r="CD17" s="0" t="n">
+        <v>17.189177867025</v>
+      </c>
+      <c r="CE17" s="0" t="n">
+        <v>22.5279502868652</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
@@ -5284,6 +9308,90 @@
       <c r="AV18" s="0" t="n">
         <v>22.9389054775238</v>
       </c>
+      <c r="AX18" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY18" s="0" t="n">
+        <v>295.124437247455</v>
+      </c>
+      <c r="AZ18" s="0" t="n">
+        <v>17.1791861637115</v>
+      </c>
+      <c r="BA18" s="0" t="n">
+        <v>120.733015298843</v>
+      </c>
+      <c r="BC18" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="BD18" s="0" t="n">
+        <v>295.631431833841</v>
+      </c>
+      <c r="BE18" s="0" t="n">
+        <v>17.1939359029235</v>
+      </c>
+      <c r="BF18" s="0" t="n">
+        <v>80.8285255432129</v>
+      </c>
+      <c r="BH18" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="BI18" s="0" t="n">
+        <v>295.594915503532</v>
+      </c>
+      <c r="BJ18" s="0" t="n">
+        <v>17.1928739745143</v>
+      </c>
+      <c r="BK18" s="0" t="n">
+        <v>62.6873154640198</v>
+      </c>
+      <c r="BM18" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="BN18" s="0" t="n">
+        <v>291.759590318468</v>
+      </c>
+      <c r="BO18" s="0" t="n">
+        <v>17.0809715859042</v>
+      </c>
+      <c r="BP18" s="0" t="n">
+        <v>44.6977872848511</v>
+      </c>
+      <c r="BR18" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="BS18" s="0" t="n">
+        <v>293.628125531866</v>
+      </c>
+      <c r="BT18" s="0" t="n">
+        <v>17.1355806884934</v>
+      </c>
+      <c r="BU18" s="0" t="n">
+        <v>32.6920804977417</v>
+      </c>
+      <c r="BW18" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="BX18" s="0" t="n">
+        <v>291.916476170222</v>
+      </c>
+      <c r="BY18" s="0" t="n">
+        <v>17.0855633846304</v>
+      </c>
+      <c r="BZ18" s="0" t="n">
+        <v>27.0241165161133</v>
+      </c>
+      <c r="CB18" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="CC18" s="0" t="n">
+        <v>297.207170327504</v>
+      </c>
+      <c r="CD18" s="0" t="n">
+        <v>17.2396975126452</v>
+      </c>
+      <c r="CE18" s="0" t="n">
+        <v>22.2831892967224</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
@@ -5406,6 +9514,90 @@
       <c r="AV19" s="0" t="n">
         <v>22.6548588275909</v>
       </c>
+      <c r="AX19" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="AY19" s="0" t="n">
+        <v>292.541829550738</v>
+      </c>
+      <c r="AZ19" s="0" t="n">
+        <v>17.1038542308667</v>
+      </c>
+      <c r="BA19" s="0" t="n">
+        <v>118.632009506226</v>
+      </c>
+      <c r="BC19" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="BD19" s="0" t="n">
+        <v>297.593285059282</v>
+      </c>
+      <c r="BE19" s="0" t="n">
+        <v>17.2508922974808</v>
+      </c>
+      <c r="BF19" s="0" t="n">
+        <v>82.3254520893097</v>
+      </c>
+      <c r="BH19" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="BI19" s="0" t="n">
+        <v>293.512035704189</v>
+      </c>
+      <c r="BJ19" s="0" t="n">
+        <v>17.1321929624958</v>
+      </c>
+      <c r="BK19" s="0" t="n">
+        <v>62.6095945835114</v>
+      </c>
+      <c r="BM19" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="BN19" s="0" t="n">
+        <v>291.598971058964</v>
+      </c>
+      <c r="BO19" s="0" t="n">
+        <v>17.0762692371303</v>
+      </c>
+      <c r="BP19" s="0" t="n">
+        <v>44.5414061546326</v>
+      </c>
+      <c r="BR19" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="BS19" s="0" t="n">
+        <v>295.374330167048</v>
+      </c>
+      <c r="BT19" s="0" t="n">
+        <v>17.1864577550771</v>
+      </c>
+      <c r="BU19" s="0" t="n">
+        <v>32.4343075752258</v>
+      </c>
+      <c r="BW19" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="BX19" s="0" t="n">
+        <v>290.050215522448</v>
+      </c>
+      <c r="BY19" s="0" t="n">
+        <v>17.030860680613</v>
+      </c>
+      <c r="BZ19" s="0" t="n">
+        <v>28.6254100799561</v>
+      </c>
+      <c r="CB19" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="CC19" s="0" t="n">
+        <v>297.114982287089</v>
+      </c>
+      <c r="CD19" s="0" t="n">
+        <v>17.2370235913016</v>
+      </c>
+      <c r="CE19" s="0" t="n">
+        <v>22.4549212455749</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="n">
@@ -5528,6 +9720,90 @@
       <c r="AV20" s="0" t="n">
         <v>23.0807881355286</v>
       </c>
+      <c r="AX20" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="AY20" s="0" t="n">
+        <v>289.953664653045</v>
+      </c>
+      <c r="AZ20" s="0" t="n">
+        <v>17.0280258589493</v>
+      </c>
+      <c r="BA20" s="0" t="n">
+        <v>119.887026309967</v>
+      </c>
+      <c r="BC20" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="BD20" s="0" t="n">
+        <v>295.839308674132</v>
+      </c>
+      <c r="BE20" s="0" t="n">
+        <v>17.199979903306</v>
+      </c>
+      <c r="BF20" s="0" t="n">
+        <v>80.5600600242615</v>
+      </c>
+      <c r="BH20" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="BI20" s="0" t="n">
+        <v>292.978268655162</v>
+      </c>
+      <c r="BJ20" s="0" t="n">
+        <v>17.1166079774926</v>
+      </c>
+      <c r="BK20" s="0" t="n">
+        <v>61.5200917720795</v>
+      </c>
+      <c r="BM20" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="BN20" s="0" t="n">
+        <v>291.965840064155</v>
+      </c>
+      <c r="BO20" s="0" t="n">
+        <v>17.0870079318807</v>
+      </c>
+      <c r="BP20" s="0" t="n">
+        <v>40.1704750061035</v>
+      </c>
+      <c r="BR20" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="BS20" s="0" t="n">
+        <v>292.801225806652</v>
+      </c>
+      <c r="BT20" s="0" t="n">
+        <v>17.1114355273499</v>
+      </c>
+      <c r="BU20" s="0" t="n">
+        <v>33.306200504303</v>
+      </c>
+      <c r="BW20" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="BX20" s="0" t="n">
+        <v>290.949204921722</v>
+      </c>
+      <c r="BY20" s="0" t="n">
+        <v>17.0572332141447</v>
+      </c>
+      <c r="BZ20" s="0" t="n">
+        <v>28.3682026863098</v>
+      </c>
+      <c r="CB20" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="CC20" s="0" t="n">
+        <v>295.381930828094</v>
+      </c>
+      <c r="CD20" s="0" t="n">
+        <v>17.186678877203</v>
+      </c>
+      <c r="CE20" s="0" t="n">
+        <v>22.56187915802</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="n">
@@ -5650,6 +9926,90 @@
       <c r="AV21" s="0" t="n">
         <v>22.1596672534943</v>
       </c>
+      <c r="AX21" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="AY21" s="0" t="n">
+        <v>290.892188614398</v>
+      </c>
+      <c r="AZ21" s="0" t="n">
+        <v>17.0555618088176</v>
+      </c>
+      <c r="BA21" s="0" t="n">
+        <v>118.210740327835</v>
+      </c>
+      <c r="BC21" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="BD21" s="0" t="n">
+        <v>294.617090584602</v>
+      </c>
+      <c r="BE21" s="0" t="n">
+        <v>17.1644134937551</v>
+      </c>
+      <c r="BF21" s="0" t="n">
+        <v>82.0816841125488</v>
+      </c>
+      <c r="BH21" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="BI21" s="0" t="n">
+        <v>295.111163762444</v>
+      </c>
+      <c r="BJ21" s="0" t="n">
+        <v>17.1787998347511</v>
+      </c>
+      <c r="BK21" s="0" t="n">
+        <v>62.137815952301</v>
+      </c>
+      <c r="BM21" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="BN21" s="0" t="n">
+        <v>291.170332585752</v>
+      </c>
+      <c r="BO21" s="0" t="n">
+        <v>17.0637139153747</v>
+      </c>
+      <c r="BP21" s="0" t="n">
+        <v>41.5869507789612</v>
+      </c>
+      <c r="BR21" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="BS21" s="0" t="n">
+        <v>292.161074984478</v>
+      </c>
+      <c r="BT21" s="0" t="n">
+        <v>17.0927199410883</v>
+      </c>
+      <c r="BU21" s="0" t="n">
+        <v>33.459664106369</v>
+      </c>
+      <c r="BW21" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="BX21" s="0" t="n">
+        <v>293.271357099215</v>
+      </c>
+      <c r="BY21" s="0" t="n">
+        <v>17.1251673597432</v>
+      </c>
+      <c r="BZ21" s="0" t="n">
+        <v>26.6688253879547</v>
+      </c>
+      <c r="CB21" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="CC21" s="0" t="n">
+        <v>295.792525291443</v>
+      </c>
+      <c r="CD21" s="0" t="n">
+        <v>17.1986198658916</v>
+      </c>
+      <c r="CE21" s="0" t="n">
+        <v>22.2719480991364</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="n">
@@ -5772,6 +10132,90 @@
       <c r="AV22" s="0" t="n">
         <v>22.7796483039856</v>
       </c>
+      <c r="AX22" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY22" s="0" t="n">
+        <v>289.607192702608</v>
+      </c>
+      <c r="AZ22" s="0" t="n">
+        <v>17.0178492384499</v>
+      </c>
+      <c r="BA22" s="0" t="n">
+        <v>119.875504016876</v>
+      </c>
+      <c r="BC22" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="BD22" s="0" t="n">
+        <v>294.525292525699</v>
+      </c>
+      <c r="BE22" s="0" t="n">
+        <v>17.1617392045707</v>
+      </c>
+      <c r="BF22" s="0" t="n">
+        <v>81.1493012905121</v>
+      </c>
+      <c r="BH22" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="BI22" s="0" t="n">
+        <v>295.221514131136</v>
+      </c>
+      <c r="BJ22" s="0" t="n">
+        <v>17.1820113528986</v>
+      </c>
+      <c r="BK22" s="0" t="n">
+        <v>62.789520740509</v>
+      </c>
+      <c r="BM22" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="BN22" s="0" t="n">
+        <v>290.197199304119</v>
+      </c>
+      <c r="BO22" s="0" t="n">
+        <v>17.035175352902</v>
+      </c>
+      <c r="BP22" s="0" t="n">
+        <v>43.2826960086823</v>
+      </c>
+      <c r="BR22" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="BS22" s="0" t="n">
+        <v>291.941482902507</v>
+      </c>
+      <c r="BT22" s="0" t="n">
+        <v>17.0862951777882</v>
+      </c>
+      <c r="BU22" s="0" t="n">
+        <v>33.7403922080994</v>
+      </c>
+      <c r="BW22" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="BX22" s="0" t="n">
+        <v>289.079827070236</v>
+      </c>
+      <c r="BY22" s="0" t="n">
+        <v>17.0023476928992</v>
+      </c>
+      <c r="BZ22" s="0" t="n">
+        <v>29.1853473186493</v>
+      </c>
+      <c r="CB22" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="CC22" s="0" t="n">
+        <v>298.014619191488</v>
+      </c>
+      <c r="CD22" s="0" t="n">
+        <v>17.2630999299514</v>
+      </c>
+      <c r="CE22" s="0" t="n">
+        <v>23.1038122177124</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="n">
@@ -5894,6 +10338,90 @@
       <c r="AV23" s="0" t="n">
         <v>22.1494801044464</v>
       </c>
+      <c r="AX23" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="AY23" s="0" t="n">
+        <v>288.03205902525</v>
+      </c>
+      <c r="AZ23" s="0" t="n">
+        <v>16.9715072702824</v>
+      </c>
+      <c r="BA23" s="0" t="n">
+        <v>119.34422326088</v>
+      </c>
+      <c r="BC23" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="BD23" s="0" t="n">
+        <v>294.063254709216</v>
+      </c>
+      <c r="BE23" s="0" t="n">
+        <v>17.1482726450572</v>
+      </c>
+      <c r="BF23" s="0" t="n">
+        <v>80.3242871761322</v>
+      </c>
+      <c r="BH23" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="BI23" s="0" t="n">
+        <v>294.469843648009</v>
+      </c>
+      <c r="BJ23" s="0" t="n">
+        <v>17.160123648972</v>
+      </c>
+      <c r="BK23" s="0" t="n">
+        <v>61.897469997406</v>
+      </c>
+      <c r="BM23" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="BN23" s="0" t="n">
+        <v>290.547980683769</v>
+      </c>
+      <c r="BO23" s="0" t="n">
+        <v>17.0454680394458</v>
+      </c>
+      <c r="BP23" s="0" t="n">
+        <v>43.3636367321014</v>
+      </c>
+      <c r="BR23" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="BS23" s="0" t="n">
+        <v>291.337409096661</v>
+      </c>
+      <c r="BT23" s="0" t="n">
+        <v>17.0686088799486</v>
+      </c>
+      <c r="BU23" s="0" t="n">
+        <v>32.7006895542145</v>
+      </c>
+      <c r="BW23" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="BX23" s="0" t="n">
+        <v>289.82551240921</v>
+      </c>
+      <c r="BY23" s="0" t="n">
+        <v>17.0242624630029</v>
+      </c>
+      <c r="BZ23" s="0" t="n">
+        <v>27.1585421562195</v>
+      </c>
+      <c r="CB23" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="CC23" s="0" t="n">
+        <v>295.447549343109</v>
+      </c>
+      <c r="CD23" s="0" t="n">
+        <v>17.188587764651</v>
+      </c>
+      <c r="CE23" s="0" t="n">
+        <v>22.81090259552</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="n">
@@ -6016,6 +10544,90 @@
       <c r="AV24" s="0" t="n">
         <v>22.6639845371246</v>
       </c>
+      <c r="AX24" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY24" s="0" t="n">
+        <v>289.867989525009</v>
+      </c>
+      <c r="AZ24" s="0" t="n">
+        <v>17.0255099637282</v>
+      </c>
+      <c r="BA24" s="0" t="n">
+        <v>119.960609436035</v>
+      </c>
+      <c r="BC24" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="BD24" s="0" t="n">
+        <v>293.137821800848</v>
+      </c>
+      <c r="BE24" s="0" t="n">
+        <v>17.1212681131057</v>
+      </c>
+      <c r="BF24" s="0" t="n">
+        <v>82.7072048187256</v>
+      </c>
+      <c r="BH24" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="BI24" s="0" t="n">
+        <v>295.272516533781</v>
+      </c>
+      <c r="BJ24" s="0" t="n">
+        <v>17.1834954690186</v>
+      </c>
+      <c r="BK24" s="0" t="n">
+        <v>61.4021360874176</v>
+      </c>
+      <c r="BM24" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="BN24" s="0" t="n">
+        <v>290.938339687173</v>
+      </c>
+      <c r="BO24" s="0" t="n">
+        <v>17.0569147177083</v>
+      </c>
+      <c r="BP24" s="0" t="n">
+        <v>43.1028962135315</v>
+      </c>
+      <c r="BR24" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="BS24" s="0" t="n">
+        <v>293.871396973612</v>
+      </c>
+      <c r="BT24" s="0" t="n">
+        <v>17.1426776488859</v>
+      </c>
+      <c r="BU24" s="0" t="n">
+        <v>32.2397394180298</v>
+      </c>
+      <c r="BW24" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="BX24" s="0" t="n">
+        <v>290.558229923248</v>
+      </c>
+      <c r="BY24" s="0" t="n">
+        <v>17.0457686809146</v>
+      </c>
+      <c r="BZ24" s="0" t="n">
+        <v>27.296276807785</v>
+      </c>
+      <c r="CB24" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="CC24" s="0" t="n">
+        <v>296.573763847351</v>
+      </c>
+      <c r="CD24" s="0" t="n">
+        <v>17.2213171345095</v>
+      </c>
+      <c r="CE24" s="0" t="n">
+        <v>22.5610218048096</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="n">
@@ -6138,6 +10750,90 @@
       <c r="AV25" s="0" t="n">
         <v>22.483950138092</v>
       </c>
+      <c r="AX25" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="AY25" s="0" t="n">
+        <v>289.617749466785</v>
+      </c>
+      <c r="AZ25" s="0" t="n">
+        <v>17.0181594030255</v>
+      </c>
+      <c r="BA25" s="0" t="n">
+        <v>119.452663660049</v>
+      </c>
+      <c r="BC25" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="BD25" s="0" t="n">
+        <v>290.489357983243</v>
+      </c>
+      <c r="BE25" s="0" t="n">
+        <v>17.0437483548439</v>
+      </c>
+      <c r="BF25" s="0" t="n">
+        <v>80.517347574234</v>
+      </c>
+      <c r="BH25" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="BI25" s="0" t="n">
+        <v>294.566576801148</v>
+      </c>
+      <c r="BJ25" s="0" t="n">
+        <v>17.1629419622962</v>
+      </c>
+      <c r="BK25" s="0" t="n">
+        <v>62.0576646327972</v>
+      </c>
+      <c r="BM25" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="BN25" s="0" t="n">
+        <v>291.996569659663</v>
+      </c>
+      <c r="BO25" s="0" t="n">
+        <v>17.0879071175982</v>
+      </c>
+      <c r="BP25" s="0" t="n">
+        <v>44.6170766353607</v>
+      </c>
+      <c r="BR25" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="BS25" s="0" t="n">
+        <v>291.704615082504</v>
+      </c>
+      <c r="BT25" s="0" t="n">
+        <v>17.079362256317</v>
+      </c>
+      <c r="BU25" s="0" t="n">
+        <v>32.8145740032196</v>
+      </c>
+      <c r="BW25" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="BX25" s="0" t="n">
+        <v>290.239198962847</v>
+      </c>
+      <c r="BY25" s="0" t="n">
+        <v>17.0364080416867</v>
+      </c>
+      <c r="BZ25" s="0" t="n">
+        <v>27.5423727035522</v>
+      </c>
+      <c r="CB25" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="CC25" s="0" t="n">
+        <v>297.166069030762</v>
+      </c>
+      <c r="CD25" s="0" t="n">
+        <v>17.238505417546</v>
+      </c>
+      <c r="CE25" s="0" t="n">
+        <v>23.0289616584778</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="n">
@@ -6260,6 +10956,90 @@
       <c r="AV26" s="0" t="n">
         <v>22.29603099823</v>
       </c>
+      <c r="AX26" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="AY26" s="0" t="n">
+        <v>289.338106802468</v>
+      </c>
+      <c r="AZ26" s="0" t="n">
+        <v>17.0099414109064</v>
+      </c>
+      <c r="BA26" s="0" t="n">
+        <v>119.343816518784</v>
+      </c>
+      <c r="BC26" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="BD26" s="0" t="n">
+        <v>292.220127881568</v>
+      </c>
+      <c r="BE26" s="0" t="n">
+        <v>17.0944472821313</v>
+      </c>
+      <c r="BF26" s="0" t="n">
+        <v>80.1740782260895</v>
+      </c>
+      <c r="BH26" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="BI26" s="0" t="n">
+        <v>295.197601138727</v>
+      </c>
+      <c r="BJ26" s="0" t="n">
+        <v>17.1813154658986</v>
+      </c>
+      <c r="BK26" s="0" t="n">
+        <v>62.0058579444885</v>
+      </c>
+      <c r="BM26" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="BN26" s="0" t="n">
+        <v>290.702107996722</v>
+      </c>
+      <c r="BO26" s="0" t="n">
+        <v>17.0499885042988</v>
+      </c>
+      <c r="BP26" s="0" t="n">
+        <v>44.4545958042145</v>
+      </c>
+      <c r="BR26" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="BS26" s="0" t="n">
+        <v>290.157907729983</v>
+      </c>
+      <c r="BT26" s="0" t="n">
+        <v>17.0340220655599</v>
+      </c>
+      <c r="BU26" s="0" t="n">
+        <v>34.2020175457001</v>
+      </c>
+      <c r="BW26" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="BX26" s="0" t="n">
+        <v>291.604462226232</v>
+      </c>
+      <c r="BY26" s="0" t="n">
+        <v>17.0764300199495</v>
+      </c>
+      <c r="BZ26" s="0" t="n">
+        <v>26.9822194576263</v>
+      </c>
+      <c r="CB26" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="CC26" s="0" t="n">
+        <v>295.419643719991</v>
+      </c>
+      <c r="CD26" s="0" t="n">
+        <v>17.187775996911</v>
+      </c>
+      <c r="CE26" s="0" t="n">
+        <v>22.5798425674438</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="n">
@@ -6381,6 +11161,90 @@
       </c>
       <c r="AV27" s="0" t="n">
         <v>22.4189918041229</v>
+      </c>
+      <c r="AX27" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="AY27" s="0" t="n">
+        <v>288.245402172105</v>
+      </c>
+      <c r="AZ27" s="0" t="n">
+        <v>16.9777914397635</v>
+      </c>
+      <c r="BA27" s="0" t="n">
+        <v>119.431599617004</v>
+      </c>
+      <c r="BC27" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="BD27" s="0" t="n">
+        <v>291.786049982906</v>
+      </c>
+      <c r="BE27" s="0" t="n">
+        <v>17.081746104626</v>
+      </c>
+      <c r="BF27" s="0" t="n">
+        <v>82.810831785202</v>
+      </c>
+      <c r="BH27" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="BI27" s="0" t="n">
+        <v>295.03928837798</v>
+      </c>
+      <c r="BJ27" s="0" t="n">
+        <v>17.176707728141</v>
+      </c>
+      <c r="BK27" s="0" t="n">
+        <v>63.8149394989014</v>
+      </c>
+      <c r="BM27" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="BN27" s="0" t="n">
+        <v>292.574033191157</v>
+      </c>
+      <c r="BO27" s="0" t="n">
+        <v>17.1047956196839</v>
+      </c>
+      <c r="BP27" s="0" t="n">
+        <v>42.6280779838562</v>
+      </c>
+      <c r="BR27" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="BS27" s="0" t="n">
+        <v>290.906157491101</v>
+      </c>
+      <c r="BT27" s="0" t="n">
+        <v>17.0559713147947</v>
+      </c>
+      <c r="BU27" s="0" t="n">
+        <v>32.6499395370483</v>
+      </c>
+      <c r="BW27" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="BX27" s="0" t="n">
+        <v>290.560081203779</v>
+      </c>
+      <c r="BY27" s="0" t="n">
+        <v>17.0458229840562</v>
+      </c>
+      <c r="BZ27" s="0" t="n">
+        <v>28.8392910957336</v>
+      </c>
+      <c r="CB27" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="CC27" s="0" t="n">
+        <v>295.862185637156</v>
+      </c>
+      <c r="CD27" s="0" t="n">
+        <v>17.200644919222</v>
+      </c>
+      <c r="CE27" s="0" t="n">
+        <v>22.3026216030121</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6432,6 +11296,90 @@
         <f aca="false">AVERAGE(AV3:AV27)</f>
         <v>22.5932573127747</v>
       </c>
+      <c r="AX28" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="AY28" s="0" t="n">
+        <v>287.059284797926</v>
+      </c>
+      <c r="AZ28" s="0" t="n">
+        <v>16.9428239912338</v>
+      </c>
+      <c r="BA28" s="0" t="n">
+        <v>120.56289768219</v>
+      </c>
+      <c r="BC28" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="BD28" s="0" t="n">
+        <v>292.182710564601</v>
+      </c>
+      <c r="BE28" s="0" t="n">
+        <v>17.0933528181162</v>
+      </c>
+      <c r="BF28" s="0" t="n">
+        <v>83.3614282608032</v>
+      </c>
+      <c r="BH28" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="BI28" s="0" t="n">
+        <v>294.188636380602</v>
+      </c>
+      <c r="BJ28" s="0" t="n">
+        <v>17.1519280659814</v>
+      </c>
+      <c r="BK28" s="0" t="n">
+        <v>62.486784696579</v>
+      </c>
+      <c r="BM28" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="BN28" s="0" t="n">
+        <v>291.362616126366</v>
+      </c>
+      <c r="BO28" s="0" t="n">
+        <v>17.0693472671443</v>
+      </c>
+      <c r="BP28" s="0" t="n">
+        <v>43.3818364143372</v>
+      </c>
+      <c r="BR28" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="BS28" s="0" t="n">
+        <v>290.277959240946</v>
+      </c>
+      <c r="BT28" s="0" t="n">
+        <v>17.0375455756088</v>
+      </c>
+      <c r="BU28" s="0" t="n">
+        <v>33.4636521339416</v>
+      </c>
+      <c r="BW28" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="BX28" s="0" t="n">
+        <v>291.320815722148</v>
+      </c>
+      <c r="BY28" s="0" t="n">
+        <v>17.0681227943247</v>
+      </c>
+      <c r="BZ28" s="0" t="n">
+        <v>26.9501268863678</v>
+      </c>
+      <c r="CB28" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="CC28" s="0" t="n">
+        <v>294.115955670675</v>
+      </c>
+      <c r="CD28" s="0" t="n">
+        <v>17.1498092021653</v>
+      </c>
+      <c r="CE28" s="0" t="n">
+        <v>21.9855411052704</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K29" s="0" t="n">
@@ -6446,6 +11394,90 @@
       <c r="N29" s="0" t="n">
         <v>49.6151874065399</v>
       </c>
+      <c r="AX29" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="AY29" s="0" t="n">
+        <v>286.509648038587</v>
+      </c>
+      <c r="AZ29" s="0" t="n">
+        <v>16.9265958786339</v>
+      </c>
+      <c r="BA29" s="0" t="n">
+        <v>123.137130498886</v>
+      </c>
+      <c r="BC29" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="BD29" s="0" t="n">
+        <v>293.724605729699</v>
+      </c>
+      <c r="BE29" s="0" t="n">
+        <v>17.1383956579868</v>
+      </c>
+      <c r="BF29" s="0" t="n">
+        <v>82.8236269950867</v>
+      </c>
+      <c r="BH29" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="BI29" s="0" t="n">
+        <v>293.546254347008</v>
+      </c>
+      <c r="BJ29" s="0" t="n">
+        <v>17.1331915983861</v>
+      </c>
+      <c r="BK29" s="0" t="n">
+        <v>61.7837615013123</v>
+      </c>
+      <c r="BM29" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="BN29" s="0" t="n">
+        <v>292.665923713235</v>
+      </c>
+      <c r="BO29" s="0" t="n">
+        <v>17.1074815128714</v>
+      </c>
+      <c r="BP29" s="0" t="n">
+        <v>44.0138235092163</v>
+      </c>
+      <c r="BR29" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="BS29" s="0" t="n">
+        <v>289.912796817311</v>
+      </c>
+      <c r="BT29" s="0" t="n">
+        <v>17.0268257998169</v>
+      </c>
+      <c r="BU29" s="0" t="n">
+        <v>32.2675845623016</v>
+      </c>
+      <c r="BW29" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="BX29" s="0" t="n">
+        <v>293.266892274221</v>
+      </c>
+      <c r="BY29" s="0" t="n">
+        <v>17.1250370006672</v>
+      </c>
+      <c r="BZ29" s="0" t="n">
+        <v>29.5426902770996</v>
+      </c>
+      <c r="CB29" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="CC29" s="0" t="n">
+        <v>294.938494682312</v>
+      </c>
+      <c r="CD29" s="0" t="n">
+        <v>17.1737734549607</v>
+      </c>
+      <c r="CE29" s="0" t="n">
+        <v>22.1706209182739</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K30" s="0" t="n">
@@ -6460,6 +11492,90 @@
       <c r="N30" s="0" t="n">
         <v>43.8687851428986</v>
       </c>
+      <c r="AX30" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="AY30" s="0" t="n">
+        <v>284.121347698192</v>
+      </c>
+      <c r="AZ30" s="0" t="n">
+        <v>16.8558994924089</v>
+      </c>
+      <c r="BA30" s="0" t="n">
+        <v>118.192752599716</v>
+      </c>
+      <c r="BC30" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="BD30" s="0" t="n">
+        <v>294.161089554931</v>
+      </c>
+      <c r="BE30" s="0" t="n">
+        <v>17.1511250230103</v>
+      </c>
+      <c r="BF30" s="0" t="n">
+        <v>81.8766701221466</v>
+      </c>
+      <c r="BH30" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="BI30" s="0" t="n">
+        <v>293.302632149097</v>
+      </c>
+      <c r="BJ30" s="0" t="n">
+        <v>17.1260804666187</v>
+      </c>
+      <c r="BK30" s="0" t="n">
+        <v>60.908750295639</v>
+      </c>
+      <c r="BM30" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="BN30" s="0" t="n">
+        <v>291.851646732505</v>
+      </c>
+      <c r="BO30" s="0" t="n">
+        <v>17.0836660799872</v>
+      </c>
+      <c r="BP30" s="0" t="n">
+        <v>44.2226452827454</v>
+      </c>
+      <c r="BR30" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="BS30" s="0" t="n">
+        <v>291.866612247636</v>
+      </c>
+      <c r="BT30" s="0" t="n">
+        <v>17.0841040809179</v>
+      </c>
+      <c r="BU30" s="0" t="n">
+        <v>29.7756769657135</v>
+      </c>
+      <c r="BW30" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="BX30" s="0" t="n">
+        <v>290.423452695211</v>
+      </c>
+      <c r="BY30" s="0" t="n">
+        <v>17.0418148298593</v>
+      </c>
+      <c r="BZ30" s="0" t="n">
+        <v>26.1909108161926</v>
+      </c>
+      <c r="CB30" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="CC30" s="0" t="n">
+        <v>296.287134806315</v>
+      </c>
+      <c r="CD30" s="0" t="n">
+        <v>17.2129931971844</v>
+      </c>
+      <c r="CE30" s="0" t="n">
+        <v>22.3054478168488</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K31" s="0" t="n">
@@ -6474,6 +11590,90 @@
       <c r="N31" s="0" t="n">
         <v>43.8093976974487</v>
       </c>
+      <c r="AX31" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="AY31" s="0" t="n">
+        <v>285.660892485753</v>
+      </c>
+      <c r="AZ31" s="0" t="n">
+        <v>16.9015056277763</v>
+      </c>
+      <c r="BA31" s="0" t="n">
+        <v>118.034617900848</v>
+      </c>
+      <c r="BC31" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="BD31" s="0" t="n">
+        <v>292.896831096291</v>
+      </c>
+      <c r="BE31" s="0" t="n">
+        <v>17.1142289074411</v>
+      </c>
+      <c r="BF31" s="0" t="n">
+        <v>81.8830032348633</v>
+      </c>
+      <c r="BH31" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="BI31" s="0" t="n">
+        <v>292.68980041464</v>
+      </c>
+      <c r="BJ31" s="0" t="n">
+        <v>17.1081793424853</v>
+      </c>
+      <c r="BK31" s="0" t="n">
+        <v>60.7300043106079</v>
+      </c>
+      <c r="BM31" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="BN31" s="0" t="n">
+        <v>292.320246248931</v>
+      </c>
+      <c r="BO31" s="0" t="n">
+        <v>17.097375419898</v>
+      </c>
+      <c r="BP31" s="0" t="n">
+        <v>43.7325887680054</v>
+      </c>
+      <c r="BR31" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="BS31" s="0" t="n">
+        <v>290.499815201324</v>
+      </c>
+      <c r="BT31" s="0" t="n">
+        <v>17.0440551278539</v>
+      </c>
+      <c r="BU31" s="0" t="n">
+        <v>30.3762044906616</v>
+      </c>
+      <c r="BW31" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="BX31" s="0" t="n">
+        <v>289.433927257856</v>
+      </c>
+      <c r="BY31" s="0" t="n">
+        <v>17.0127577793213</v>
+      </c>
+      <c r="BZ31" s="0" t="n">
+        <v>28.5148696899414</v>
+      </c>
+      <c r="CB31" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="CC31" s="0" t="n">
+        <v>293.627155780792</v>
+      </c>
+      <c r="CD31" s="0" t="n">
+        <v>17.135552392053</v>
+      </c>
+      <c r="CE31" s="0" t="n">
+        <v>22.4284937381744</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K32" s="0" t="n">
@@ -6488,6 +11688,90 @@
       <c r="N32" s="0" t="n">
         <v>43.9131345748901</v>
       </c>
+      <c r="AX32" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="AY32" s="0" t="n">
+        <v>286.302336312214</v>
+      </c>
+      <c r="AZ32" s="0" t="n">
+        <v>16.9204709246585</v>
+      </c>
+      <c r="BA32" s="0" t="n">
+        <v>119.849165678024</v>
+      </c>
+      <c r="BC32" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="BD32" s="0" t="n">
+        <v>294.134899164361</v>
+      </c>
+      <c r="BE32" s="0" t="n">
+        <v>17.1503614878626</v>
+      </c>
+      <c r="BF32" s="0" t="n">
+        <v>80.6769239902496</v>
+      </c>
+      <c r="BH32" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="BI32" s="0" t="n">
+        <v>291.494532471002</v>
+      </c>
+      <c r="BJ32" s="0" t="n">
+        <v>17.0732109595999</v>
+      </c>
+      <c r="BK32" s="0" t="n">
+        <v>62.6597554683685</v>
+      </c>
+      <c r="BM32" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="BN32" s="0" t="n">
+        <v>291.579237924214</v>
+      </c>
+      <c r="BO32" s="0" t="n">
+        <v>17.0756914332689</v>
+      </c>
+      <c r="BP32" s="0" t="n">
+        <v>42.9727871417999</v>
+      </c>
+      <c r="BR32" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="BS32" s="0" t="n">
+        <v>293.789716137918</v>
+      </c>
+      <c r="BT32" s="0" t="n">
+        <v>17.1402951006661</v>
+      </c>
+      <c r="BU32" s="0" t="n">
+        <v>31.6553349494934</v>
+      </c>
+      <c r="BW32" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="BX32" s="0" t="n">
+        <v>291.092822949092</v>
+      </c>
+      <c r="BY32" s="0" t="n">
+        <v>17.0614425811269</v>
+      </c>
+      <c r="BZ32" s="0" t="n">
+        <v>28.2768354415894</v>
+      </c>
+      <c r="CB32" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="CC32" s="0" t="n">
+        <v>295.165725549062</v>
+      </c>
+      <c r="CD32" s="0" t="n">
+        <v>17.1803878171903</v>
+      </c>
+      <c r="CE32" s="0" t="n">
+        <v>22.6865751743317</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K33" s="0" t="n">
@@ -6502,6 +11786,90 @@
       <c r="N33" s="0" t="n">
         <v>43.8756563663483</v>
       </c>
+      <c r="AX33" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="AY33" s="0" t="n">
+        <v>286.17036739524</v>
+      </c>
+      <c r="AZ33" s="0" t="n">
+        <v>16.9165707930195</v>
+      </c>
+      <c r="BA33" s="0" t="n">
+        <v>117.81847858429</v>
+      </c>
+      <c r="BC33" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="BD33" s="0" t="n">
+        <v>293.131615042725</v>
+      </c>
+      <c r="BE33" s="0" t="n">
+        <v>17.1210868534309</v>
+      </c>
+      <c r="BF33" s="0" t="n">
+        <v>83.5197703838348</v>
+      </c>
+      <c r="BH33" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="BI33" s="0" t="n">
+        <v>291.633713519519</v>
+      </c>
+      <c r="BJ33" s="0" t="n">
+        <v>17.0772864799862</v>
+      </c>
+      <c r="BK33" s="0" t="n">
+        <v>62.5747036933899</v>
+      </c>
+      <c r="BM33" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="BN33" s="0" t="n">
+        <v>291.325379335491</v>
+      </c>
+      <c r="BO33" s="0" t="n">
+        <v>17.0682564820046</v>
+      </c>
+      <c r="BP33" s="0" t="n">
+        <v>44.0465445518494</v>
+      </c>
+      <c r="BR33" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="BS33" s="0" t="n">
+        <v>289.591175746669</v>
+      </c>
+      <c r="BT33" s="0" t="n">
+        <v>17.017378639105</v>
+      </c>
+      <c r="BU33" s="0" t="n">
+        <v>32.3832747936249</v>
+      </c>
+      <c r="BW33" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="BX33" s="0" t="n">
+        <v>318.297911961873</v>
+      </c>
+      <c r="BY33" s="0" t="n">
+        <v>17.8409055813284</v>
+      </c>
+      <c r="BZ33" s="0" t="n">
+        <v>26.6380343437195</v>
+      </c>
+      <c r="CB33" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="CC33" s="0" t="n">
+        <v>296.336709340413</v>
+      </c>
+      <c r="CD33" s="0" t="n">
+        <v>17.2144331693034</v>
+      </c>
+      <c r="CE33" s="0" t="n">
+        <v>22.4524910449982</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K34" s="0" t="n">
@@ -6516,6 +11884,90 @@
       <c r="N34" s="0" t="n">
         <v>43.813803434372</v>
       </c>
+      <c r="AX34" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="AY34" s="0" t="n">
+        <v>287.928540019027</v>
+      </c>
+      <c r="AZ34" s="0" t="n">
+        <v>16.9684572079794</v>
+      </c>
+      <c r="BA34" s="0" t="n">
+        <v>118.935867786407</v>
+      </c>
+      <c r="BC34" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="BD34" s="0" t="n">
+        <v>294.546294011124</v>
+      </c>
+      <c r="BE34" s="0" t="n">
+        <v>17.1623510630427</v>
+      </c>
+      <c r="BF34" s="0" t="n">
+        <v>81.2885692119598</v>
+      </c>
+      <c r="BH34" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="BI34" s="0" t="n">
+        <v>289.996978455388</v>
+      </c>
+      <c r="BJ34" s="0" t="n">
+        <v>17.0292976500908</v>
+      </c>
+      <c r="BK34" s="0" t="n">
+        <v>62.7866835594177</v>
+      </c>
+      <c r="BM34" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="BN34" s="0" t="n">
+        <v>292.556578492807</v>
+      </c>
+      <c r="BO34" s="0" t="n">
+        <v>17.1042853838682</v>
+      </c>
+      <c r="BP34" s="0" t="n">
+        <v>43.5500786304474</v>
+      </c>
+      <c r="BR34" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="BS34" s="0" t="n">
+        <v>290.773823531427</v>
+      </c>
+      <c r="BT34" s="0" t="n">
+        <v>17.052091470885</v>
+      </c>
+      <c r="BU34" s="0" t="n">
+        <v>32.155091047287</v>
+      </c>
+      <c r="BW34" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="BX34" s="0" t="n">
+        <v>290.184705336889</v>
+      </c>
+      <c r="BY34" s="0" t="n">
+        <v>17.0348086381059</v>
+      </c>
+      <c r="BZ34" s="0" t="n">
+        <v>29.0784516334534</v>
+      </c>
+      <c r="CB34" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="CC34" s="0" t="n">
+        <v>295.383559544881</v>
+      </c>
+      <c r="CD34" s="0" t="n">
+        <v>17.1867262602533</v>
+      </c>
+      <c r="CE34" s="0" t="n">
+        <v>22.0320603847504</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K35" s="0" t="n">
@@ -6530,6 +11982,90 @@
       <c r="N35" s="0" t="n">
         <v>43.8511748313904</v>
       </c>
+      <c r="AX35" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="AY35" s="0" t="n">
+        <v>286.484687293594</v>
+      </c>
+      <c r="AZ35" s="0" t="n">
+        <v>16.9258585393354</v>
+      </c>
+      <c r="BA35" s="0" t="n">
+        <v>117.551593542099</v>
+      </c>
+      <c r="BC35" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="BD35" s="0" t="n">
+        <v>293.201535773659</v>
+      </c>
+      <c r="BE35" s="0" t="n">
+        <v>17.1231286794692</v>
+      </c>
+      <c r="BF35" s="0" t="n">
+        <v>80.3080291748047</v>
+      </c>
+      <c r="BH35" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="BI35" s="0" t="n">
+        <v>291.231574087848</v>
+      </c>
+      <c r="BJ35" s="0" t="n">
+        <v>17.0655083161284</v>
+      </c>
+      <c r="BK35" s="0" t="n">
+        <v>62.7179667949677</v>
+      </c>
+      <c r="BM35" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="BN35" s="0" t="n">
+        <v>294.782303175583</v>
+      </c>
+      <c r="BO35" s="0" t="n">
+        <v>17.1692254681329</v>
+      </c>
+      <c r="BP35" s="0" t="n">
+        <v>44.6433231830597</v>
+      </c>
+      <c r="BR35" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="BS35" s="0" t="n">
+        <v>288.879508852647</v>
+      </c>
+      <c r="BT35" s="0" t="n">
+        <v>16.9964557732678</v>
+      </c>
+      <c r="BU35" s="0" t="n">
+        <v>31.5959515571594</v>
+      </c>
+      <c r="BW35" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="BX35" s="0" t="n">
+        <v>293.795448263486</v>
+      </c>
+      <c r="BY35" s="0" t="n">
+        <v>17.1404623118365</v>
+      </c>
+      <c r="BZ35" s="0" t="n">
+        <v>27.0248072147369</v>
+      </c>
+      <c r="CB35" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="CC35" s="0" t="n">
+        <v>295.107259273529</v>
+      </c>
+      <c r="CD35" s="0" t="n">
+        <v>17.1786861917182</v>
+      </c>
+      <c r="CE35" s="0" t="n">
+        <v>22.9605848789215</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K36" s="0" t="n">
@@ -6544,6 +12080,90 @@
       <c r="N36" s="0" t="n">
         <v>43.7353067398071</v>
       </c>
+      <c r="AX36" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="AY36" s="0" t="n">
+        <v>287.198204647658</v>
+      </c>
+      <c r="AZ36" s="0" t="n">
+        <v>16.9469231616733</v>
+      </c>
+      <c r="BA36" s="0" t="n">
+        <v>120.606287956238</v>
+      </c>
+      <c r="BC36" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="BD36" s="0" t="n">
+        <v>293.705806924972</v>
+      </c>
+      <c r="BE36" s="0" t="n">
+        <v>17.1378472080064</v>
+      </c>
+      <c r="BF36" s="0" t="n">
+        <v>82.1619725227356</v>
+      </c>
+      <c r="BH36" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="BI36" s="0" t="n">
+        <v>291.517883834689</v>
+      </c>
+      <c r="BJ36" s="0" t="n">
+        <v>17.0738948056584</v>
+      </c>
+      <c r="BK36" s="0" t="n">
+        <v>61.7495548725128</v>
+      </c>
+      <c r="BM36" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="BN36" s="0" t="n">
+        <v>292.760952040728</v>
+      </c>
+      <c r="BO36" s="0" t="n">
+        <v>17.1102586783698</v>
+      </c>
+      <c r="BP36" s="0" t="n">
+        <v>43.6627571582794</v>
+      </c>
+      <c r="BR36" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="BS36" s="0" t="n">
+        <v>291.012975189767</v>
+      </c>
+      <c r="BT36" s="0" t="n">
+        <v>17.0591024145401</v>
+      </c>
+      <c r="BU36" s="0" t="n">
+        <v>31.6574556827545</v>
+      </c>
+      <c r="BW36" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="BX36" s="0" t="n">
+        <v>290.318545262019</v>
+      </c>
+      <c r="BY36" s="0" t="n">
+        <v>17.0387366099139</v>
+      </c>
+      <c r="BZ36" s="0" t="n">
+        <v>29.6086971759796</v>
+      </c>
+      <c r="CB36" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="CC36" s="0" t="n">
+        <v>296.26293182373</v>
+      </c>
+      <c r="CD36" s="0" t="n">
+        <v>17.2122901388435</v>
+      </c>
+      <c r="CE36" s="0" t="n">
+        <v>22.7095310688019</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K37" s="0" t="n">
@@ -6558,6 +12178,90 @@
       <c r="N37" s="0" t="n">
         <v>49.8566465377808</v>
       </c>
+      <c r="AX37" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="AY37" s="0" t="n">
+        <v>288.630391249908</v>
+      </c>
+      <c r="AZ37" s="0" t="n">
+        <v>16.989125676441</v>
+      </c>
+      <c r="BA37" s="0" t="n">
+        <v>120.122721195221</v>
+      </c>
+      <c r="BC37" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="BD37" s="0" t="n">
+        <v>291.50779304467</v>
+      </c>
+      <c r="BE37" s="0" t="n">
+        <v>17.0735992996401</v>
+      </c>
+      <c r="BF37" s="0" t="n">
+        <v>83.3165154457092</v>
+      </c>
+      <c r="BH37" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="BI37" s="0" t="n">
+        <v>290.598827110076</v>
+      </c>
+      <c r="BJ37" s="0" t="n">
+        <v>17.0469594681889</v>
+      </c>
+      <c r="BK37" s="0" t="n">
+        <v>61.9105494022369</v>
+      </c>
+      <c r="BM37" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="BN37" s="0" t="n">
+        <v>292.951794398688</v>
+      </c>
+      <c r="BO37" s="0" t="n">
+        <v>17.115834610053</v>
+      </c>
+      <c r="BP37" s="0" t="n">
+        <v>43.5767452716827</v>
+      </c>
+      <c r="BR37" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="BS37" s="0" t="n">
+        <v>289.969506744305</v>
+      </c>
+      <c r="BT37" s="0" t="n">
+        <v>17.0284910295747</v>
+      </c>
+      <c r="BU37" s="0" t="n">
+        <v>32.0909118652344</v>
+      </c>
+      <c r="BW37" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="BX37" s="0" t="n">
+        <v>291.567622979482</v>
+      </c>
+      <c r="BY37" s="0" t="n">
+        <v>17.075351328142</v>
+      </c>
+      <c r="BZ37" s="0" t="n">
+        <v>26.8857278823853</v>
+      </c>
+      <c r="CB37" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="CC37" s="0" t="n">
+        <v>294.519787152608</v>
+      </c>
+      <c r="CD37" s="0" t="n">
+        <v>17.1615788071089</v>
+      </c>
+      <c r="CE37" s="0" t="n">
+        <v>22.155544757843</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K38" s="0" t="n">
@@ -6572,6 +12276,90 @@
       <c r="N38" s="0" t="n">
         <v>44.0641465187073</v>
       </c>
+      <c r="AX38" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="AY38" s="0" t="n">
+        <v>287.923773466225</v>
+      </c>
+      <c r="AZ38" s="0" t="n">
+        <v>16.9683167540633</v>
+      </c>
+      <c r="BA38" s="0" t="n">
+        <v>121.011612176895</v>
+      </c>
+      <c r="BC38" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="BD38" s="0" t="n">
+        <v>290.117630999424</v>
+      </c>
+      <c r="BE38" s="0" t="n">
+        <v>17.03283978083</v>
+      </c>
+      <c r="BF38" s="0" t="n">
+        <v>81.5791239738464</v>
+      </c>
+      <c r="BH38" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="BI38" s="0" t="n">
+        <v>291.61215570224</v>
+      </c>
+      <c r="BJ38" s="0" t="n">
+        <v>17.0766552844004</v>
+      </c>
+      <c r="BK38" s="0" t="n">
+        <v>63.5409660339356</v>
+      </c>
+      <c r="BM38" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="BN38" s="0" t="n">
+        <v>292.531897705677</v>
+      </c>
+      <c r="BO38" s="0" t="n">
+        <v>17.1035638890167</v>
+      </c>
+      <c r="BP38" s="0" t="n">
+        <v>43.1224684715271</v>
+      </c>
+      <c r="BR38" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="BS38" s="0" t="n">
+        <v>290.591537216625</v>
+      </c>
+      <c r="BT38" s="0" t="n">
+        <v>17.0467456488511</v>
+      </c>
+      <c r="BU38" s="0" t="n">
+        <v>32.0156850814819</v>
+      </c>
+      <c r="BW38" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="BX38" s="0" t="n">
+        <v>291.624997377396</v>
+      </c>
+      <c r="BY38" s="0" t="n">
+        <v>17.0770312811506</v>
+      </c>
+      <c r="BZ38" s="0" t="n">
+        <v>27.9419372081757</v>
+      </c>
+      <c r="CB38" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="CC38" s="0" t="n">
+        <v>296.843334992727</v>
+      </c>
+      <c r="CD38" s="0" t="n">
+        <v>17.2291420271796</v>
+      </c>
+      <c r="CE38" s="0" t="n">
+        <v>22.4229383468628</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K39" s="0" t="n">
@@ -6586,6 +12374,90 @@
       <c r="N39" s="0" t="n">
         <v>43.6651294231415</v>
       </c>
+      <c r="AX39" s="0" t="n">
+        <v>36</v>
+      </c>
+      <c r="AY39" s="0" t="n">
+        <v>286.731234839589</v>
+      </c>
+      <c r="AZ39" s="0" t="n">
+        <v>16.9331401352374</v>
+      </c>
+      <c r="BA39" s="0" t="n">
+        <v>117.227047204971</v>
+      </c>
+      <c r="BC39" s="0" t="n">
+        <v>36</v>
+      </c>
+      <c r="BD39" s="0" t="n">
+        <v>291.030644883507</v>
+      </c>
+      <c r="BE39" s="0" t="n">
+        <v>17.0596203030287</v>
+      </c>
+      <c r="BF39" s="0" t="n">
+        <v>81.2249550819397</v>
+      </c>
+      <c r="BH39" s="0" t="n">
+        <v>36</v>
+      </c>
+      <c r="BI39" s="0" t="n">
+        <v>291.686359103635</v>
+      </c>
+      <c r="BJ39" s="0" t="n">
+        <v>17.0788278023884</v>
+      </c>
+      <c r="BK39" s="0" t="n">
+        <v>61.8912966251373</v>
+      </c>
+      <c r="BM39" s="0" t="n">
+        <v>36</v>
+      </c>
+      <c r="BN39" s="0" t="n">
+        <v>293.583533193551</v>
+      </c>
+      <c r="BO39" s="0" t="n">
+        <v>17.1342794769302</v>
+      </c>
+      <c r="BP39" s="0" t="n">
+        <v>43.5108788013458</v>
+      </c>
+      <c r="BR39" s="0" t="n">
+        <v>36</v>
+      </c>
+      <c r="BS39" s="0" t="n">
+        <v>291.360322100687</v>
+      </c>
+      <c r="BT39" s="0" t="n">
+        <v>17.0692800697829</v>
+      </c>
+      <c r="BU39" s="0" t="n">
+        <v>31.9701330661774</v>
+      </c>
+      <c r="BW39" s="0" t="n">
+        <v>36</v>
+      </c>
+      <c r="BX39" s="0" t="n">
+        <v>292.467966477076</v>
+      </c>
+      <c r="BY39" s="0" t="n">
+        <v>17.1016948422394</v>
+      </c>
+      <c r="BZ39" s="0" t="n">
+        <v>27.9986050128937</v>
+      </c>
+      <c r="CB39" s="0" t="n">
+        <v>36</v>
+      </c>
+      <c r="CC39" s="0" t="n">
+        <v>294.396827538808</v>
+      </c>
+      <c r="CD39" s="0" t="n">
+        <v>17.1579960233941</v>
+      </c>
+      <c r="CE39" s="0" t="n">
+        <v>22.2648823261261</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K40" s="0" t="n">
@@ -6600,6 +12472,90 @@
       <c r="N40" s="0" t="n">
         <v>44.4129974842072</v>
       </c>
+      <c r="AX40" s="0" t="n">
+        <v>37</v>
+      </c>
+      <c r="AY40" s="0" t="n">
+        <v>286.887918875699</v>
+      </c>
+      <c r="AZ40" s="0" t="n">
+        <v>16.9377660532816</v>
+      </c>
+      <c r="BA40" s="0" t="n">
+        <v>114.637771606445</v>
+      </c>
+      <c r="BC40" s="0" t="n">
+        <v>37</v>
+      </c>
+      <c r="BD40" s="0" t="n">
+        <v>290.160189139597</v>
+      </c>
+      <c r="BE40" s="0" t="n">
+        <v>17.0340890316916</v>
+      </c>
+      <c r="BF40" s="0" t="n">
+        <v>81.6219556331635</v>
+      </c>
+      <c r="BH40" s="0" t="n">
+        <v>37</v>
+      </c>
+      <c r="BI40" s="0" t="n">
+        <v>289.839270819395</v>
+      </c>
+      <c r="BJ40" s="0" t="n">
+        <v>17.0246665406226</v>
+      </c>
+      <c r="BK40" s="0" t="n">
+        <v>62.9785532951355</v>
+      </c>
+      <c r="BM40" s="0" t="n">
+        <v>37</v>
+      </c>
+      <c r="BN40" s="0" t="n">
+        <v>294.020452442045</v>
+      </c>
+      <c r="BO40" s="0" t="n">
+        <v>17.1470245944317</v>
+      </c>
+      <c r="BP40" s="0" t="n">
+        <v>45.2795653343201</v>
+      </c>
+      <c r="BR40" s="0" t="n">
+        <v>37</v>
+      </c>
+      <c r="BS40" s="0" t="n">
+        <v>290.453053357396</v>
+      </c>
+      <c r="BT40" s="0" t="n">
+        <v>17.0426832792667</v>
+      </c>
+      <c r="BU40" s="0" t="n">
+        <v>32.4452533721924</v>
+      </c>
+      <c r="BW40" s="0" t="n">
+        <v>37</v>
+      </c>
+      <c r="BX40" s="0" t="n">
+        <v>290.195724725723</v>
+      </c>
+      <c r="BY40" s="0" t="n">
+        <v>17.0351320724473</v>
+      </c>
+      <c r="BZ40" s="0" t="n">
+        <v>27.0566344261169</v>
+      </c>
+      <c r="CB40" s="0" t="n">
+        <v>37</v>
+      </c>
+      <c r="CC40" s="0" t="n">
+        <v>294.850253264109</v>
+      </c>
+      <c r="CD40" s="0" t="n">
+        <v>17.1712041879453</v>
+      </c>
+      <c r="CE40" s="0" t="n">
+        <v>22.2043931484222</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K41" s="0" t="n">
@@ -6614,6 +12570,90 @@
       <c r="N41" s="0" t="n">
         <v>43.8229322433472</v>
       </c>
+      <c r="AX41" s="0" t="n">
+        <v>38</v>
+      </c>
+      <c r="AY41" s="0" t="n">
+        <v>287.17239034636</v>
+      </c>
+      <c r="AZ41" s="0" t="n">
+        <v>16.9461615224912</v>
+      </c>
+      <c r="BA41" s="0" t="n">
+        <v>117.06868314743</v>
+      </c>
+      <c r="BC41" s="0" t="n">
+        <v>38</v>
+      </c>
+      <c r="BD41" s="0" t="n">
+        <v>290.186740727997</v>
+      </c>
+      <c r="BE41" s="0" t="n">
+        <v>17.0348683801196</v>
+      </c>
+      <c r="BF41" s="0" t="n">
+        <v>80.8418824672699</v>
+      </c>
+      <c r="BH41" s="0" t="n">
+        <v>38</v>
+      </c>
+      <c r="BI41" s="0" t="n">
+        <v>289.267932427795</v>
+      </c>
+      <c r="BJ41" s="0" t="n">
+        <v>17.0078785398942</v>
+      </c>
+      <c r="BK41" s="0" t="n">
+        <v>63.5318105220795</v>
+      </c>
+      <c r="BM41" s="0" t="n">
+        <v>38</v>
+      </c>
+      <c r="BN41" s="0" t="n">
+        <v>294.555528099708</v>
+      </c>
+      <c r="BO41" s="0" t="n">
+        <v>17.1626200826013</v>
+      </c>
+      <c r="BP41" s="0" t="n">
+        <v>43.6748449802399</v>
+      </c>
+      <c r="BR41" s="0" t="n">
+        <v>38</v>
+      </c>
+      <c r="BS41" s="0" t="n">
+        <v>288.147282114851</v>
+      </c>
+      <c r="BT41" s="0" t="n">
+        <v>16.9749015347616</v>
+      </c>
+      <c r="BU41" s="0" t="n">
+        <v>31.6971025466919</v>
+      </c>
+      <c r="BW41" s="0" t="n">
+        <v>38</v>
+      </c>
+      <c r="BX41" s="0" t="n">
+        <v>290.807589292526</v>
+      </c>
+      <c r="BY41" s="0" t="n">
+        <v>17.0530815189668</v>
+      </c>
+      <c r="BZ41" s="0" t="n">
+        <v>28.6897923946381</v>
+      </c>
+      <c r="CB41" s="0" t="n">
+        <v>38</v>
+      </c>
+      <c r="CC41" s="0" t="n">
+        <v>295.454960982005</v>
+      </c>
+      <c r="CD41" s="0" t="n">
+        <v>17.1888033609674</v>
+      </c>
+      <c r="CE41" s="0" t="n">
+        <v>22.2393963336945</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K42" s="0" t="n">
@@ -6628,6 +12668,90 @@
       <c r="N42" s="0" t="n">
         <v>43.8947358131409</v>
       </c>
+      <c r="AX42" s="0" t="n">
+        <v>39</v>
+      </c>
+      <c r="AY42" s="0" t="n">
+        <v>287.140461326347</v>
+      </c>
+      <c r="AZ42" s="0" t="n">
+        <v>16.9452194239658</v>
+      </c>
+      <c r="BA42" s="0" t="n">
+        <v>116.915890455246</v>
+      </c>
+      <c r="BC42" s="0" t="n">
+        <v>39</v>
+      </c>
+      <c r="BD42" s="0" t="n">
+        <v>288.393259754125</v>
+      </c>
+      <c r="BE42" s="0" t="n">
+        <v>16.9821453224887</v>
+      </c>
+      <c r="BF42" s="0" t="n">
+        <v>79.2504470348358</v>
+      </c>
+      <c r="BH42" s="0" t="n">
+        <v>39</v>
+      </c>
+      <c r="BI42" s="0" t="n">
+        <v>290.099808487727</v>
+      </c>
+      <c r="BJ42" s="0" t="n">
+        <v>17.0323165919298</v>
+      </c>
+      <c r="BK42" s="0" t="n">
+        <v>63.4328682422638</v>
+      </c>
+      <c r="BM42" s="0" t="n">
+        <v>39</v>
+      </c>
+      <c r="BN42" s="0" t="n">
+        <v>291.634593923731</v>
+      </c>
+      <c r="BO42" s="0" t="n">
+        <v>17.077312257019</v>
+      </c>
+      <c r="BP42" s="0" t="n">
+        <v>43.1153035163879</v>
+      </c>
+      <c r="BR42" s="0" t="n">
+        <v>39</v>
+      </c>
+      <c r="BS42" s="0" t="n">
+        <v>288.54535720865</v>
+      </c>
+      <c r="BT42" s="0" t="n">
+        <v>16.9866228900465</v>
+      </c>
+      <c r="BU42" s="0" t="n">
+        <v>32.4143970012665</v>
+      </c>
+      <c r="BW42" s="0" t="n">
+        <v>39</v>
+      </c>
+      <c r="BX42" s="0" t="n">
+        <v>290.623961567879</v>
+      </c>
+      <c r="BY42" s="0" t="n">
+        <v>17.0476966645902</v>
+      </c>
+      <c r="BZ42" s="0" t="n">
+        <v>27.8664216995239</v>
+      </c>
+      <c r="CB42" s="0" t="n">
+        <v>39</v>
+      </c>
+      <c r="CC42" s="0" t="n">
+        <v>295.831580797831</v>
+      </c>
+      <c r="CD42" s="0" t="n">
+        <v>17.1997552540096</v>
+      </c>
+      <c r="CE42" s="0" t="n">
+        <v>22.6724009513855</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K43" s="0" t="n">
@@ -6642,6 +12766,90 @@
       <c r="N43" s="0" t="n">
         <v>43.90118932724</v>
       </c>
+      <c r="AX43" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="AY43" s="0" t="n">
+        <v>285.342335694028</v>
+      </c>
+      <c r="AZ43" s="0" t="n">
+        <v>16.892079081452</v>
+      </c>
+      <c r="BA43" s="0" t="n">
+        <v>119.34730052948</v>
+      </c>
+      <c r="BC43" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="BD43" s="0" t="n">
+        <v>288.044043031829</v>
+      </c>
+      <c r="BE43" s="0" t="n">
+        <v>16.9718603291398</v>
+      </c>
+      <c r="BF43" s="0" t="n">
+        <v>81.9778616428375</v>
+      </c>
+      <c r="BH43" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="BI43" s="0" t="n">
+        <v>289.420664510983</v>
+      </c>
+      <c r="BJ43" s="0" t="n">
+        <v>17.012367986585</v>
+      </c>
+      <c r="BK43" s="0" t="n">
+        <v>63.6003754138947</v>
+      </c>
+      <c r="BM43" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="BN43" s="0" t="n">
+        <v>293.020209189022</v>
+      </c>
+      <c r="BO43" s="0" t="n">
+        <v>17.1178330751594</v>
+      </c>
+      <c r="BP43" s="0" t="n">
+        <v>43.2838268280029</v>
+      </c>
+      <c r="BR43" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="BS43" s="0" t="n">
+        <v>288.921784821752</v>
+      </c>
+      <c r="BT43" s="0" t="n">
+        <v>16.9976993979112</v>
+      </c>
+      <c r="BU43" s="0" t="n">
+        <v>35.0106518268585</v>
+      </c>
+      <c r="BW43" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="BX43" s="0" t="n">
+        <v>289.308377464612</v>
+      </c>
+      <c r="BY43" s="0" t="n">
+        <v>17.0090675072037</v>
+      </c>
+      <c r="BZ43" s="0" t="n">
+        <v>28.9358508586884</v>
+      </c>
+      <c r="CB43" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="CC43" s="0" t="n">
+        <v>292.801103274027</v>
+      </c>
+      <c r="CD43" s="0" t="n">
+        <v>17.1114319469186</v>
+      </c>
+      <c r="CE43" s="0" t="n">
+        <v>22.0586042404175</v>
+      </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K44" s="0" t="n">
@@ -6656,6 +12864,90 @@
       <c r="N44" s="0" t="n">
         <v>43.7214114665985</v>
       </c>
+      <c r="AX44" s="0" t="n">
+        <v>41</v>
+      </c>
+      <c r="AY44" s="0" t="n">
+        <v>286.556917646955</v>
+      </c>
+      <c r="AZ44" s="0" t="n">
+        <v>16.927992132765</v>
+      </c>
+      <c r="BA44" s="0" t="n">
+        <v>118.089805603027</v>
+      </c>
+      <c r="BC44" s="0" t="n">
+        <v>41</v>
+      </c>
+      <c r="BD44" s="0" t="n">
+        <v>288.211704483444</v>
+      </c>
+      <c r="BE44" s="0" t="n">
+        <v>16.9767990058033</v>
+      </c>
+      <c r="BF44" s="0" t="n">
+        <v>80.0185205936432</v>
+      </c>
+      <c r="BH44" s="0" t="n">
+        <v>41</v>
+      </c>
+      <c r="BI44" s="0" t="n">
+        <v>290.034864057662</v>
+      </c>
+      <c r="BJ44" s="0" t="n">
+        <v>17.0304099791421</v>
+      </c>
+      <c r="BK44" s="0" t="n">
+        <v>62.7522192001343</v>
+      </c>
+      <c r="BM44" s="0" t="n">
+        <v>41</v>
+      </c>
+      <c r="BN44" s="0" t="n">
+        <v>292.187572593938</v>
+      </c>
+      <c r="BO44" s="0" t="n">
+        <v>17.0934950374094</v>
+      </c>
+      <c r="BP44" s="0" t="n">
+        <v>44.3111138343811</v>
+      </c>
+      <c r="BR44" s="0" t="n">
+        <v>41</v>
+      </c>
+      <c r="BS44" s="0" t="n">
+        <v>287.998165917459</v>
+      </c>
+      <c r="BT44" s="0" t="n">
+        <v>16.970508711216</v>
+      </c>
+      <c r="BU44" s="0" t="n">
+        <v>31.8922643661499</v>
+      </c>
+      <c r="BW44" s="0" t="n">
+        <v>41</v>
+      </c>
+      <c r="BX44" s="0" t="n">
+        <v>291.186962286631</v>
+      </c>
+      <c r="BY44" s="0" t="n">
+        <v>17.0642011909914</v>
+      </c>
+      <c r="BZ44" s="0" t="n">
+        <v>27.3136336803436</v>
+      </c>
+      <c r="CB44" s="0" t="n">
+        <v>41</v>
+      </c>
+      <c r="CC44" s="0" t="n">
+        <v>293.890082677205</v>
+      </c>
+      <c r="CD44" s="0" t="n">
+        <v>17.1432226456173</v>
+      </c>
+      <c r="CE44" s="0" t="n">
+        <v>22.4612884521484</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K45" s="0" t="n">
@@ -6670,6 +12962,90 @@
       <c r="N45" s="0" t="n">
         <v>43.7643585205078</v>
       </c>
+      <c r="AX45" s="0" t="n">
+        <v>42</v>
+      </c>
+      <c r="AY45" s="0" t="n">
+        <v>285.676582781755</v>
+      </c>
+      <c r="AZ45" s="0" t="n">
+        <v>16.9019697899906</v>
+      </c>
+      <c r="BA45" s="0" t="n">
+        <v>118.018446922302</v>
+      </c>
+      <c r="BC45" s="0" t="n">
+        <v>42</v>
+      </c>
+      <c r="BD45" s="0" t="n">
+        <v>288.930085834195</v>
+      </c>
+      <c r="BE45" s="0" t="n">
+        <v>16.997943576627</v>
+      </c>
+      <c r="BF45" s="0" t="n">
+        <v>82.558500289917</v>
+      </c>
+      <c r="BH45" s="0" t="n">
+        <v>42</v>
+      </c>
+      <c r="BI45" s="0" t="n">
+        <v>289.633011358247</v>
+      </c>
+      <c r="BJ45" s="0" t="n">
+        <v>17.0186077972979</v>
+      </c>
+      <c r="BK45" s="0" t="n">
+        <v>63.2391595840454</v>
+      </c>
+      <c r="BM45" s="0" t="n">
+        <v>42</v>
+      </c>
+      <c r="BN45" s="0" t="n">
+        <v>291.651583428476</v>
+      </c>
+      <c r="BO45" s="0" t="n">
+        <v>17.0778096788926</v>
+      </c>
+      <c r="BP45" s="0" t="n">
+        <v>43.7700750827789</v>
+      </c>
+      <c r="BR45" s="0" t="n">
+        <v>42</v>
+      </c>
+      <c r="BS45" s="0" t="n">
+        <v>289.609496094228</v>
+      </c>
+      <c r="BT45" s="0" t="n">
+        <v>17.0179169140711</v>
+      </c>
+      <c r="BU45" s="0" t="n">
+        <v>32.3830189704895</v>
+      </c>
+      <c r="BW45" s="0" t="n">
+        <v>42</v>
+      </c>
+      <c r="BX45" s="0" t="n">
+        <v>294.994316975276</v>
+      </c>
+      <c r="BY45" s="0" t="n">
+        <v>17.175398597275</v>
+      </c>
+      <c r="BZ45" s="0" t="n">
+        <v>28.3144991397858</v>
+      </c>
+      <c r="CB45" s="0" t="n">
+        <v>42</v>
+      </c>
+      <c r="CC45" s="0" t="n">
+        <v>297.154989242554</v>
+      </c>
+      <c r="CD45" s="0" t="n">
+        <v>17.238184047125</v>
+      </c>
+      <c r="CE45" s="0" t="n">
+        <v>22.4549548625946</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K46" s="0" t="n">
@@ -6684,6 +13060,90 @@
       <c r="N46" s="0" t="n">
         <v>43.6321868896484</v>
       </c>
+      <c r="AX46" s="0" t="n">
+        <v>43</v>
+      </c>
+      <c r="AY46" s="0" t="n">
+        <v>286.286337416021</v>
+      </c>
+      <c r="AZ46" s="0" t="n">
+        <v>16.9199981505915</v>
+      </c>
+      <c r="BA46" s="0" t="n">
+        <v>117.283884286881</v>
+      </c>
+      <c r="BC46" s="0" t="n">
+        <v>43</v>
+      </c>
+      <c r="BD46" s="0" t="n">
+        <v>289.050376498859</v>
+      </c>
+      <c r="BE46" s="0" t="n">
+        <v>17.0014815971685</v>
+      </c>
+      <c r="BF46" s="0" t="n">
+        <v>82.4394385814667</v>
+      </c>
+      <c r="BH46" s="0" t="n">
+        <v>43</v>
+      </c>
+      <c r="BI46" s="0" t="n">
+        <v>289.387603183444</v>
+      </c>
+      <c r="BJ46" s="0" t="n">
+        <v>17.0113962737761</v>
+      </c>
+      <c r="BK46" s="0" t="n">
+        <v>62.74858045578</v>
+      </c>
+      <c r="BM46" s="0" t="n">
+        <v>43</v>
+      </c>
+      <c r="BN46" s="0" t="n">
+        <v>290.467774724025</v>
+      </c>
+      <c r="BO46" s="0" t="n">
+        <v>17.0431151707669</v>
+      </c>
+      <c r="BP46" s="0" t="n">
+        <v>43.4936037063599</v>
+      </c>
+      <c r="BR46" s="0" t="n">
+        <v>43</v>
+      </c>
+      <c r="BS46" s="0" t="n">
+        <v>300.293922145435</v>
+      </c>
+      <c r="BT46" s="0" t="n">
+        <v>17.3289907999697</v>
+      </c>
+      <c r="BU46" s="0" t="n">
+        <v>32.8069295883179</v>
+      </c>
+      <c r="BW46" s="0" t="n">
+        <v>43</v>
+      </c>
+      <c r="BX46" s="0" t="n">
+        <v>289.660115877787</v>
+      </c>
+      <c r="BY46" s="0" t="n">
+        <v>17.0194040987864</v>
+      </c>
+      <c r="BZ46" s="0" t="n">
+        <v>27.6850485801697</v>
+      </c>
+      <c r="CB46" s="0" t="n">
+        <v>43</v>
+      </c>
+      <c r="CC46" s="0" t="n">
+        <v>293.984143257141</v>
+      </c>
+      <c r="CD46" s="0" t="n">
+        <v>17.1459658012356</v>
+      </c>
+      <c r="CE46" s="0" t="n">
+        <v>22.3354296684265</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K47" s="0" t="n">
@@ -6698,6 +13158,90 @@
       <c r="N47" s="0" t="n">
         <v>43.6879253387451</v>
       </c>
+      <c r="AX47" s="0" t="n">
+        <v>44</v>
+      </c>
+      <c r="AY47" s="0" t="n">
+        <v>285.795118922945</v>
+      </c>
+      <c r="AZ47" s="0" t="n">
+        <v>16.9054760040333</v>
+      </c>
+      <c r="BA47" s="0" t="n">
+        <v>118.158315658569</v>
+      </c>
+      <c r="BC47" s="0" t="n">
+        <v>44</v>
+      </c>
+      <c r="BD47" s="0" t="n">
+        <v>289.924869800651</v>
+      </c>
+      <c r="BE47" s="0" t="n">
+        <v>17.0271803244299</v>
+      </c>
+      <c r="BF47" s="0" t="n">
+        <v>80.3756442070007</v>
+      </c>
+      <c r="BH47" s="0" t="n">
+        <v>44</v>
+      </c>
+      <c r="BI47" s="0" t="n">
+        <v>288.971361520791</v>
+      </c>
+      <c r="BJ47" s="0" t="n">
+        <v>16.9991576709198</v>
+      </c>
+      <c r="BK47" s="0" t="n">
+        <v>62.9486577510834</v>
+      </c>
+      <c r="BM47" s="0" t="n">
+        <v>44</v>
+      </c>
+      <c r="BN47" s="0" t="n">
+        <v>289.302684798895</v>
+      </c>
+      <c r="BO47" s="0" t="n">
+        <v>17.0089001642933</v>
+      </c>
+      <c r="BP47" s="0" t="n">
+        <v>43.4775810241699</v>
+      </c>
+      <c r="BR47" s="0" t="n">
+        <v>44</v>
+      </c>
+      <c r="BS47" s="0" t="n">
+        <v>287.553738546745</v>
+      </c>
+      <c r="BT47" s="0" t="n">
+        <v>16.9574095470607</v>
+      </c>
+      <c r="BU47" s="0" t="n">
+        <v>31.8590676784515</v>
+      </c>
+      <c r="BW47" s="0" t="n">
+        <v>44</v>
+      </c>
+      <c r="BX47" s="0" t="n">
+        <v>288.952933152517</v>
+      </c>
+      <c r="BY47" s="0" t="n">
+        <v>16.9986156245889</v>
+      </c>
+      <c r="BZ47" s="0" t="n">
+        <v>26.000762462616</v>
+      </c>
+      <c r="CB47" s="0" t="n">
+        <v>44</v>
+      </c>
+      <c r="CC47" s="0" t="n">
+        <v>295.722318251928</v>
+      </c>
+      <c r="CD47" s="0" t="n">
+        <v>17.196578678677</v>
+      </c>
+      <c r="CE47" s="0" t="n">
+        <v>22.0476839542389</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K48" s="0" t="n">
@@ -6712,6 +13256,90 @@
       <c r="N48" s="0" t="n">
         <v>48.578143119812</v>
       </c>
+      <c r="AX48" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="AY48" s="0" t="n">
+        <v>285.849927794672</v>
+      </c>
+      <c r="AZ48" s="0" t="n">
+        <v>16.9070969653182</v>
+      </c>
+      <c r="BA48" s="0" t="n">
+        <v>117.957135438919</v>
+      </c>
+      <c r="BC48" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="BD48" s="0" t="n">
+        <v>289.567734512426</v>
+      </c>
+      <c r="BE48" s="0" t="n">
+        <v>17.0166898811851</v>
+      </c>
+      <c r="BF48" s="0" t="n">
+        <v>80.0834019184113</v>
+      </c>
+      <c r="BH48" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="BI48" s="0" t="n">
+        <v>289.190882830623</v>
+      </c>
+      <c r="BJ48" s="0" t="n">
+        <v>17.0056132741699</v>
+      </c>
+      <c r="BK48" s="0" t="n">
+        <v>61.6201512813568</v>
+      </c>
+      <c r="BM48" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="BN48" s="0" t="n">
+        <v>289.812064446343</v>
+      </c>
+      <c r="BO48" s="0" t="n">
+        <v>17.0238674937966</v>
+      </c>
+      <c r="BP48" s="0" t="n">
+        <v>43.6490111351013</v>
+      </c>
+      <c r="BR48" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="BS48" s="0" t="n">
+        <v>288.29522019827</v>
+      </c>
+      <c r="BT48" s="0" t="n">
+        <v>16.9792585291075</v>
+      </c>
+      <c r="BU48" s="0" t="n">
+        <v>34.1289844512939</v>
+      </c>
+      <c r="BW48" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="BX48" s="0" t="n">
+        <v>289.700620571772</v>
+      </c>
+      <c r="BY48" s="0" t="n">
+        <v>17.0205940134818</v>
+      </c>
+      <c r="BZ48" s="0" t="n">
+        <v>25.0401878356934</v>
+      </c>
+      <c r="CB48" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="CC48" s="0" t="n">
+        <v>293.664535045624</v>
+      </c>
+      <c r="CD48" s="0" t="n">
+        <v>17.1366430506568</v>
+      </c>
+      <c r="CE48" s="0" t="n">
+        <v>22.4712147712707</v>
+      </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K49" s="0" t="n">
@@ -6726,6 +13354,90 @@
       <c r="N49" s="0" t="n">
         <v>51.5745496749878</v>
       </c>
+      <c r="AX49" s="0" t="n">
+        <v>46</v>
+      </c>
+      <c r="AY49" s="0" t="n">
+        <v>284.875351055681</v>
+      </c>
+      <c r="AZ49" s="0" t="n">
+        <v>16.8782508292679</v>
+      </c>
+      <c r="BA49" s="0" t="n">
+        <v>118.285290718079</v>
+      </c>
+      <c r="BC49" s="0" t="n">
+        <v>46</v>
+      </c>
+      <c r="BD49" s="0" t="n">
+        <v>288.973074576026</v>
+      </c>
+      <c r="BE49" s="0" t="n">
+        <v>16.9992080573192</v>
+      </c>
+      <c r="BF49" s="0" t="n">
+        <v>82.9816429615021</v>
+      </c>
+      <c r="BH49" s="0" t="n">
+        <v>46</v>
+      </c>
+      <c r="BI49" s="0" t="n">
+        <v>288.933845060959</v>
+      </c>
+      <c r="BJ49" s="0" t="n">
+        <v>16.9980541551367</v>
+      </c>
+      <c r="BK49" s="0" t="n">
+        <v>63.1266548633576</v>
+      </c>
+      <c r="BM49" s="0" t="n">
+        <v>46</v>
+      </c>
+      <c r="BN49" s="0" t="n">
+        <v>289.156376757653</v>
+      </c>
+      <c r="BO49" s="0" t="n">
+        <v>17.0045986944018</v>
+      </c>
+      <c r="BP49" s="0" t="n">
+        <v>44.3514852523804</v>
+      </c>
+      <c r="BR49" s="0" t="n">
+        <v>46</v>
+      </c>
+      <c r="BS49" s="0" t="n">
+        <v>287.328488422125</v>
+      </c>
+      <c r="BT49" s="0" t="n">
+        <v>16.950766602786</v>
+      </c>
+      <c r="BU49" s="0" t="n">
+        <v>33.7286365032196</v>
+      </c>
+      <c r="BW49" s="0" t="n">
+        <v>46</v>
+      </c>
+      <c r="BX49" s="0" t="n">
+        <v>292.400959571203</v>
+      </c>
+      <c r="BY49" s="0" t="n">
+        <v>17.0997356579335</v>
+      </c>
+      <c r="BZ49" s="0" t="n">
+        <v>26.6504850387573</v>
+      </c>
+      <c r="CB49" s="0" t="n">
+        <v>46</v>
+      </c>
+      <c r="CC49" s="0" t="n">
+        <v>292.446618239085</v>
+      </c>
+      <c r="CD49" s="0" t="n">
+        <v>17.1010706752263</v>
+      </c>
+      <c r="CE49" s="0" t="n">
+        <v>21.7861356735229</v>
+      </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K50" s="0" t="n">
@@ -6740,6 +13452,90 @@
       <c r="N50" s="0" t="n">
         <v>49.7337713241577</v>
       </c>
+      <c r="AX50" s="0" t="n">
+        <v>47</v>
+      </c>
+      <c r="AY50" s="0" t="n">
+        <v>282.64588550165</v>
+      </c>
+      <c r="AZ50" s="0" t="n">
+        <v>16.8120755857702</v>
+      </c>
+      <c r="BA50" s="0" t="n">
+        <v>118.358244895935</v>
+      </c>
+      <c r="BC50" s="0" t="n">
+        <v>47</v>
+      </c>
+      <c r="BD50" s="0" t="n">
+        <v>289.55923600239</v>
+      </c>
+      <c r="BE50" s="0" t="n">
+        <v>17.016440168331</v>
+      </c>
+      <c r="BF50" s="0" t="n">
+        <v>80.5231666564941</v>
+      </c>
+      <c r="BH50" s="0" t="n">
+        <v>47</v>
+      </c>
+      <c r="BI50" s="0" t="n">
+        <v>289.458845766016</v>
+      </c>
+      <c r="BJ50" s="0" t="n">
+        <v>17.0134901112622</v>
+      </c>
+      <c r="BK50" s="0" t="n">
+        <v>63.3437614440918</v>
+      </c>
+      <c r="BM50" s="0" t="n">
+        <v>47</v>
+      </c>
+      <c r="BN50" s="0" t="n">
+        <v>290.224768186083</v>
+      </c>
+      <c r="BO50" s="0" t="n">
+        <v>17.035984508859</v>
+      </c>
+      <c r="BP50" s="0" t="n">
+        <v>43.3214430809021</v>
+      </c>
+      <c r="BR50" s="0" t="n">
+        <v>47</v>
+      </c>
+      <c r="BS50" s="0" t="n">
+        <v>289.221793212094</v>
+      </c>
+      <c r="BT50" s="0" t="n">
+        <v>17.0065220786642</v>
+      </c>
+      <c r="BU50" s="0" t="n">
+        <v>32.3812947273254</v>
+      </c>
+      <c r="BW50" s="0" t="n">
+        <v>47</v>
+      </c>
+      <c r="BX50" s="0" t="n">
+        <v>290.82858244578</v>
+      </c>
+      <c r="BY50" s="0" t="n">
+        <v>17.0536970316052</v>
+      </c>
+      <c r="BZ50" s="0" t="n">
+        <v>26.6645414829254</v>
+      </c>
+      <c r="CB50" s="0" t="n">
+        <v>47</v>
+      </c>
+      <c r="CC50" s="0" t="n">
+        <v>293.122737725576</v>
+      </c>
+      <c r="CD50" s="0" t="n">
+        <v>17.1208276004864</v>
+      </c>
+      <c r="CE50" s="0" t="n">
+        <v>22.0762283802032</v>
+      </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K51" s="0" t="n">
@@ -6754,6 +13550,90 @@
       <c r="N51" s="0" t="n">
         <v>50.3679795265198</v>
       </c>
+      <c r="AX51" s="0" t="n">
+        <v>48</v>
+      </c>
+      <c r="AY51" s="0" t="n">
+        <v>284.733769734038</v>
+      </c>
+      <c r="AZ51" s="0" t="n">
+        <v>16.8740561138701</v>
+      </c>
+      <c r="BA51" s="0" t="n">
+        <v>117.987632274628</v>
+      </c>
+      <c r="BC51" s="0" t="n">
+        <v>48</v>
+      </c>
+      <c r="BD51" s="0" t="n">
+        <v>288.538671387774</v>
+      </c>
+      <c r="BE51" s="0" t="n">
+        <v>16.9864260922589</v>
+      </c>
+      <c r="BF51" s="0" t="n">
+        <v>82.2195544242859</v>
+      </c>
+      <c r="BH51" s="0" t="n">
+        <v>48</v>
+      </c>
+      <c r="BI51" s="0" t="n">
+        <v>289.648745617265</v>
+      </c>
+      <c r="BJ51" s="0" t="n">
+        <v>17.0190700573581</v>
+      </c>
+      <c r="BK51" s="0" t="n">
+        <v>63.7208745479584</v>
+      </c>
+      <c r="BM51" s="0" t="n">
+        <v>48</v>
+      </c>
+      <c r="BN51" s="0" t="n">
+        <v>291.174851421281</v>
+      </c>
+      <c r="BO51" s="0" t="n">
+        <v>17.0638463255293</v>
+      </c>
+      <c r="BP51" s="0" t="n">
+        <v>43.2897984981537</v>
+      </c>
+      <c r="BR51" s="0" t="n">
+        <v>48</v>
+      </c>
+      <c r="BS51" s="0" t="n">
+        <v>289.036200242005</v>
+      </c>
+      <c r="BT51" s="0" t="n">
+        <v>17.0010646796607</v>
+      </c>
+      <c r="BU51" s="0" t="n">
+        <v>31.6832504272461</v>
+      </c>
+      <c r="BW51" s="0" t="n">
+        <v>48</v>
+      </c>
+      <c r="BX51" s="0" t="n">
+        <v>291.220526297887</v>
+      </c>
+      <c r="BY51" s="0" t="n">
+        <v>17.0651846253677</v>
+      </c>
+      <c r="BZ51" s="0" t="n">
+        <v>27.4758729934692</v>
+      </c>
+      <c r="CB51" s="0" t="n">
+        <v>48</v>
+      </c>
+      <c r="CC51" s="0" t="n">
+        <v>292.939192771912</v>
+      </c>
+      <c r="CD51" s="0" t="n">
+        <v>17.1154664783614</v>
+      </c>
+      <c r="CE51" s="0" t="n">
+        <v>21.8913555145264</v>
+      </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K52" s="0" t="n">
@@ -6767,6 +13647,120 @@
       </c>
       <c r="N52" s="0" t="n">
         <v>51.9034261703491</v>
+      </c>
+      <c r="AX52" s="0" t="n">
+        <v>49</v>
+      </c>
+      <c r="AY52" s="0" t="n">
+        <v>284.778270820036</v>
+      </c>
+      <c r="AZ52" s="0" t="n">
+        <v>16.8753746868043</v>
+      </c>
+      <c r="BA52" s="0" t="n">
+        <v>119.129452466965</v>
+      </c>
+      <c r="BC52" s="0" t="n">
+        <v>49</v>
+      </c>
+      <c r="BD52" s="0" t="n">
+        <v>289.481499337822</v>
+      </c>
+      <c r="BE52" s="0" t="n">
+        <v>17.0141558514615</v>
+      </c>
+      <c r="BF52" s="0" t="n">
+        <v>79.5341131687164</v>
+      </c>
+      <c r="BH52" s="0" t="n">
+        <v>49</v>
+      </c>
+      <c r="BI52" s="0" t="n">
+        <v>290.43415457287</v>
+      </c>
+      <c r="BJ52" s="0" t="n">
+        <v>17.0421288157575</v>
+      </c>
+      <c r="BK52" s="0" t="n">
+        <v>61.7933094501495</v>
+      </c>
+      <c r="BM52" s="0" t="n">
+        <v>49</v>
+      </c>
+      <c r="BN52" s="0" t="n">
+        <v>290.06575038137</v>
+      </c>
+      <c r="BO52" s="0" t="n">
+        <v>17.0313167541846</v>
+      </c>
+      <c r="BP52" s="0" t="n">
+        <v>44.218120098114</v>
+      </c>
+      <c r="BR52" s="0" t="n">
+        <v>49</v>
+      </c>
+      <c r="BS52" s="0" t="n">
+        <v>287.7340347051</v>
+      </c>
+      <c r="BT52" s="0" t="n">
+        <v>16.9627248608559</v>
+      </c>
+      <c r="BU52" s="0" t="n">
+        <v>31.8663878440857</v>
+      </c>
+      <c r="BW52" s="0" t="n">
+        <v>49</v>
+      </c>
+      <c r="BX52" s="0" t="n">
+        <v>290.408754229546</v>
+      </c>
+      <c r="BY52" s="0" t="n">
+        <v>17.0413835773257</v>
+      </c>
+      <c r="BZ52" s="0" t="n">
+        <v>26.6512794494629</v>
+      </c>
+      <c r="CB52" s="0" t="n">
+        <v>49</v>
+      </c>
+      <c r="CC52" s="0" t="n">
+        <v>291.47900946935</v>
+      </c>
+      <c r="CD52" s="0" t="n">
+        <v>17.0727563524274</v>
+      </c>
+      <c r="CE52" s="0" t="n">
+        <v>22.4795079231262</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="BA53" s="0" t="n">
+        <f aca="false">AVERAGE(BA28:BA52)</f>
+        <v>118.571521072388</v>
+      </c>
+      <c r="BF53" s="0" t="n">
+        <f aca="false">AVERAGE(BF28:BF52)</f>
+        <v>81.537868719101</v>
+      </c>
+      <c r="BK53" s="0" t="n">
+        <f aca="false">AVERAGE(BK28:BK52)</f>
+        <v>62.5831101322174</v>
+      </c>
+      <c r="BP53" s="0" t="n">
+        <f aca="false">AVERAGE(BP28:BP52)</f>
+        <v>43.7468899822235</v>
+      </c>
+      <c r="BU53" s="0" t="n">
+        <f aca="false">AVERAGE(BU28:BU52)</f>
+        <v>32.2281678199768</v>
+      </c>
+      <c r="BZ53" s="0" t="n">
+        <f aca="false">AVERAGE(BZ28:BZ52)</f>
+        <v>27.559868144989</v>
+      </c>
+      <c r="CE53" s="0" t="n">
+        <f aca="false">AVERAGE(CE28:CE52)</f>
+        <v>22.3101322174072</v>
       </c>
     </row>
   </sheetData>
@@ -6785,106 +13779,343 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+      <selection pane="topLeft" activeCell="H35" activeCellId="0" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.9132653061225"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.6938775510204"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="16.3877551020408"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="23.7602040816327"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>43</v>
+        <v>69</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
-        <f aca="false">2^2</f>
-        <v>4</v>
-      </c>
-      <c r="B2" s="0" t="n">
+      <c r="A2" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <v>20.0570677071839</v>
+      </c>
+      <c r="I2" s="2" t="n">
         <f aca="false">'Collected Data'!X28</f>
         <v>80.7211255073547</v>
       </c>
-      <c r="C2" s="0" t="n">
-        <v>20.0570677071839</v>
+      <c r="J2" s="0" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
-        <v>8</v>
+        <f aca="false">2^2</f>
+        <v>4</v>
       </c>
       <c r="B3" s="0" t="n">
+        <f aca="false">'Collected Data'!X28</f>
+        <v>80.7211255073547</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>20.0570677071839</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <f aca="false">2^2</f>
+        <v>4</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <v>48.5559103819657</v>
+      </c>
+      <c r="I3" s="0" t="n">
         <f aca="false">'Collected Data'!AC28</f>
         <v>57.5811643791199</v>
       </c>
-      <c r="C3" s="0" t="n">
-        <v>48.5559103819657</v>
+      <c r="J3" s="0" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B4" s="0" t="n">
+        <f aca="false">'Collected Data'!AC28</f>
+        <v>57.5811643791199</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>48.5559103819657</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>19.3851783448526</v>
+      </c>
+      <c r="I4" s="0" t="n">
         <f aca="false">'Collected Data'!AG28</f>
         <v>41.4633109378815</v>
       </c>
-      <c r="C4" s="0" t="n">
-        <v>19.3851783448526</v>
+      <c r="J4" s="0" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="B5" s="0" t="n">
+        <f aca="false">'Collected Data'!AG28</f>
+        <v>41.4633109378815</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>19.3851783448526</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>19.2745657744252</v>
+      </c>
+      <c r="I5" s="0" t="n">
         <f aca="false">'Collected Data'!AL28</f>
         <v>28.0419330596924</v>
       </c>
-      <c r="C5" s="0" t="n">
-        <v>19.2745657744252</v>
+      <c r="J5" s="0" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="B6" s="0" t="n">
+        <f aca="false">'Collected Data'!AL28</f>
+        <v>28.0419330596924</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>19.2745657744252</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>19.1477482046505</v>
+      </c>
+      <c r="I6" s="0" t="n">
         <f aca="false">'Collected Data'!AQ28</f>
         <v>23.09263422966</v>
       </c>
-      <c r="C6" s="0" t="n">
-        <v>19.1477482046505</v>
+      <c r="J6" s="0" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
-        <f aca="false">A6*2</f>
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="B7" s="0" t="n">
+        <f aca="false">'Collected Data'!AQ28</f>
+        <v>23.09263422966</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>19.1477482046505</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>64</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>19.7549941359874</v>
+      </c>
+      <c r="I7" s="0" t="n">
         <f aca="false">'Collected Data'!AV28</f>
         <v>22.5932573127747</v>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="J7" s="0" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <f aca="false">A7*2</f>
+        <v>128</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <f aca="false">'Collected Data'!AV28</f>
+        <v>22.5932573127747</v>
+      </c>
+      <c r="C8" s="0" t="n">
         <v>19.7549941359874</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <f aca="false">D7*2</f>
+        <v>128</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>19.5488636340124</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <f aca="false">'Collected Data'!BA53</f>
+        <v>118.571521072388</v>
+      </c>
+      <c r="J8" s="0" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G9" s="0" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <v>19.9295853819841</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <f aca="false">'Collected Data'!BF53</f>
+        <v>81.537868719101</v>
+      </c>
+      <c r="J9" s="0" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G10" s="0" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <v>20.3712741003685</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <f aca="false">'Collected Data'!BK53</f>
+        <v>62.5831101322174</v>
+      </c>
+      <c r="J10" s="0" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G11" s="0" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <v>19.7603714366621</v>
+      </c>
+      <c r="I11" s="0" t="n">
+        <f aca="false">'Collected Data'!BP53</f>
+        <v>43.7468899822235</v>
+      </c>
+      <c r="J11" s="0" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G12" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <v>19.5692309650141</v>
+      </c>
+      <c r="I12" s="0" t="n">
+        <f aca="false">'Collected Data'!BU53</f>
+        <v>32.2281678199768</v>
+      </c>
+      <c r="J12" s="0" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G13" s="0" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="H13" s="0" t="n">
+        <v>21.61480302536</v>
+      </c>
+      <c r="I13" s="0" t="n">
+        <f aca="false">'Collected Data'!BZ53</f>
+        <v>27.559868144989</v>
+      </c>
+      <c r="J13" s="0" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G14" s="0" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="H14" s="0" t="n">
+        <v>18.9669282502532</v>
+      </c>
+      <c r="I14" s="0" t="n">
+        <f aca="false">'Collected Data'!CE53</f>
+        <v>22.3101322174072</v>
+      </c>
+      <c r="J14" s="0" t="n">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -6905,12 +14136,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
